--- a/Code/Results/Cases/Case_5_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_40/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,994 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.22424155680864</v>
+        <v>25.5811894136019</v>
       </c>
       <c r="C2">
-        <v>20.43352193183969</v>
+        <v>12.69252313581533</v>
       </c>
       <c r="D2">
-        <v>2.975758266382071</v>
+        <v>1.903619332946742</v>
       </c>
       <c r="E2">
-        <v>8.687367544539295</v>
+        <v>5.676717117755089</v>
       </c>
       <c r="F2">
-        <v>40.36360448476192</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>4.080468853276381</v>
+        <v>43.81708777303334</v>
       </c>
       <c r="I2">
-        <v>24.55323191208639</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>7.692559645309985</v>
+        <v>5.880497703078114</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>20.50688022475499</v>
       </c>
       <c r="L2">
-        <v>13.76078728622012</v>
+        <v>7.501842534403676</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>15.95937655032938</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.40965143576837</v>
+        <v>24.19701643018661</v>
       </c>
       <c r="C3">
-        <v>18.94316935138323</v>
+        <v>11.77145650500876</v>
       </c>
       <c r="D3">
-        <v>3.048080843331262</v>
+        <v>1.82279743830885</v>
       </c>
       <c r="E3">
-        <v>8.208304810274027</v>
+        <v>5.698291035031382</v>
       </c>
       <c r="F3">
-        <v>38.15568747350442</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>4.080468853276381</v>
+        <v>42.6315723440671</v>
       </c>
       <c r="I3">
-        <v>23.62065557948068</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>7.413379569890399</v>
+        <v>5.92903483188896</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>19.40519562772285</v>
       </c>
       <c r="L3">
-        <v>12.76112810695437</v>
+        <v>7.36272897147073</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>16.14300786348076</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.2408828515279</v>
+        <v>23.32928310019035</v>
       </c>
       <c r="C4">
-        <v>17.9853521583933</v>
+        <v>11.17842915442529</v>
       </c>
       <c r="D4">
-        <v>3.094011192220681</v>
+        <v>1.773081377323977</v>
       </c>
       <c r="E4">
-        <v>7.910114795177677</v>
+        <v>5.712787630899093</v>
       </c>
       <c r="F4">
-        <v>36.79340571508114</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>4.080468853276381</v>
+        <v>41.92820300514001</v>
       </c>
       <c r="I4">
-        <v>23.06449279324771</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>7.246012277789717</v>
+        <v>5.960046134958971</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>18.71521257044597</v>
       </c>
       <c r="L4">
-        <v>12.11903277243353</v>
+        <v>7.280861715662656</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>16.26053653090285</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.750574392837</v>
+        <v>22.97152044754053</v>
       </c>
       <c r="C5">
-        <v>17.58401261030883</v>
+        <v>10.92973630143443</v>
       </c>
       <c r="D5">
-        <v>3.11308386851818</v>
+        <v>1.752777552629732</v>
       </c>
       <c r="E5">
-        <v>7.787659326989242</v>
+        <v>5.719005992160807</v>
       </c>
       <c r="F5">
-        <v>36.23689677425526</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>4.080468853276381</v>
+        <v>41.64776126089782</v>
       </c>
       <c r="I5">
-        <v>22.84195784863027</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>7.178832008497883</v>
+        <v>5.972991490577647</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>18.43090038489208</v>
       </c>
       <c r="L5">
-        <v>11.85006835032992</v>
+        <v>7.248395058468912</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>16.30960373301651</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.66830375370202</v>
+        <v>22.91187478309983</v>
       </c>
       <c r="C6">
-        <v>17.51669722572391</v>
+        <v>10.88801328123982</v>
       </c>
       <c r="D6">
-        <v>3.1162716752734</v>
+        <v>1.749402892048299</v>
       </c>
       <c r="E6">
-        <v>7.767271760130267</v>
+        <v>5.720057229368398</v>
       </c>
       <c r="F6">
-        <v>36.14441776586263</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>4.080468853276381</v>
+        <v>41.60156839324873</v>
       </c>
       <c r="I6">
-        <v>22.80525372242925</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>7.167738890683509</v>
+        <v>5.975159770633224</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>18.38351018993833</v>
       </c>
       <c r="L6">
-        <v>11.80496055617726</v>
+        <v>7.243058118879925</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>16.31782143166694</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.23432754308955</v>
+        <v>23.32447450354958</v>
       </c>
       <c r="C7">
-        <v>17.97998452464663</v>
+        <v>11.1751038040596</v>
       </c>
       <c r="D7">
-        <v>3.094267004352508</v>
+        <v>1.772807757280126</v>
       </c>
       <c r="E7">
-        <v>7.908467001044863</v>
+        <v>5.712870239415146</v>
       </c>
       <c r="F7">
-        <v>36.78590548101462</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>4.080468853276381</v>
+        <v>41.92439579236244</v>
       </c>
       <c r="I7">
-        <v>23.06147500330384</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>7.245102104979309</v>
+        <v>5.960219468416421</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>18.71139053975997</v>
       </c>
       <c r="L7">
-        <v>12.11543524203102</v>
+        <v>7.280420232108897</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>16.26119355155455</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.6097176736762</v>
+        <v>25.1078029357759</v>
       </c>
       <c r="C8">
-        <v>19.92834434809691</v>
+        <v>12.38057040991176</v>
       </c>
       <c r="D8">
-        <v>3.000359949625477</v>
+        <v>1.875757039638157</v>
       </c>
       <c r="E8">
-        <v>8.523060951250841</v>
+        <v>5.68389411056791</v>
       </c>
       <c r="F8">
-        <v>39.60381522774833</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>4.080468853276381</v>
+        <v>43.40323382216153</v>
       </c>
       <c r="I8">
-        <v>24.22823962304837</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>7.595457175873613</v>
+        <v>5.896984720368832</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>20.1299690770607</v>
       </c>
       <c r="L8">
-        <v>13.42185963810758</v>
+        <v>7.453140873265945</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>16.0216824179801</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.84944339176324</v>
+        <v>28.45325161619182</v>
       </c>
       <c r="C9">
-        <v>23.42387416594704</v>
+        <v>14.5323130470025</v>
       </c>
       <c r="D9">
-        <v>2.829994856175177</v>
+        <v>2.078067674807466</v>
       </c>
       <c r="E9">
-        <v>9.694724377894051</v>
+        <v>5.637173953683425</v>
       </c>
       <c r="F9">
-        <v>45.07307372655805</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>4.080468853276381</v>
+        <v>46.49842547351473</v>
       </c>
       <c r="I9">
-        <v>26.65025766599798</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>8.315157392205869</v>
+        <v>5.782390275172792</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>22.79624724331612</v>
       </c>
       <c r="L9">
-        <v>15.76869392818698</v>
+        <v>7.819976485989051</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>15.59146076451493</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.73277163492955</v>
+        <v>30.81155111391129</v>
       </c>
       <c r="C10">
-        <v>25.81586101346691</v>
+        <v>15.99317205839889</v>
       </c>
       <c r="D10">
-        <v>2.716549026591561</v>
+        <v>2.228901695723613</v>
       </c>
       <c r="E10">
-        <v>10.66623345389671</v>
+        <v>5.609309574706358</v>
       </c>
       <c r="F10">
-        <v>49.06520756781081</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>4.080468853276381</v>
+        <v>48.89504218800337</v>
       </c>
       <c r="I10">
-        <v>28.52106505558151</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>8.866020693305147</v>
+        <v>5.703656909553338</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>24.67898243872341</v>
       </c>
       <c r="L10">
-        <v>17.37684915832769</v>
+        <v>8.106838905946248</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>15.30209517382025</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.00038677584218</v>
+        <v>31.86299107444395</v>
       </c>
       <c r="C11">
-        <v>26.87166010497361</v>
+        <v>16.634090150836</v>
       </c>
       <c r="D11">
-        <v>2.668604564152401</v>
+        <v>2.298536180990419</v>
       </c>
       <c r="E11">
-        <v>11.109637438842</v>
+        <v>5.598120443844265</v>
       </c>
       <c r="F11">
-        <v>50.88377669904501</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>4.080468853276381</v>
+        <v>50.01383585083165</v>
       </c>
       <c r="I11">
-        <v>29.39585727674667</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>9.122429713924857</v>
+        <v>5.668958674989155</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>25.56407022984568</v>
       </c>
       <c r="L11">
-        <v>18.0872313996269</v>
+        <v>8.241244570781998</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>15.17703551598029</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.47468418325703</v>
+        <v>32.25819745451389</v>
       </c>
       <c r="C12">
-        <v>27.26740221434038</v>
+        <v>16.87361992869161</v>
       </c>
       <c r="D12">
-        <v>2.651108606764879</v>
+        <v>2.32510616243875</v>
       </c>
       <c r="E12">
-        <v>11.275960332296</v>
+        <v>5.594105833052624</v>
       </c>
       <c r="F12">
-        <v>51.61847534007599</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>4.080468853276381</v>
+        <v>50.4418546275495</v>
       </c>
       <c r="I12">
-        <v>29.73101296953173</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>9.251788934376634</v>
+        <v>5.655974276901439</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>25.92461281366174</v>
       </c>
       <c r="L12">
-        <v>18.35358760494974</v>
+        <v>8.292722651911735</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>15.13070712269045</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.37277937633451</v>
+        <v>32.17321111423363</v>
       </c>
       <c r="C13">
-        <v>27.18234254750165</v>
+        <v>16.82217004968906</v>
       </c>
       <c r="D13">
-        <v>2.654844798514646</v>
+        <v>2.319373939772955</v>
       </c>
       <c r="E13">
-        <v>11.24020578693053</v>
+        <v>5.594960401208422</v>
       </c>
       <c r="F13">
-        <v>51.46028221881123</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>4.080468853276381</v>
+        <v>50.34947439608079</v>
       </c>
       <c r="I13">
-        <v>29.6586489285289</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>9.221893504871623</v>
+        <v>5.658763898403312</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>25.84716146934667</v>
       </c>
       <c r="L13">
-        <v>18.29633387898558</v>
+        <v>8.281609657937066</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>15.14063749480174</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.0395183076273</v>
+        <v>31.89556309306486</v>
       </c>
       <c r="C14">
-        <v>26.90429584126183</v>
+        <v>16.65385857658804</v>
       </c>
       <c r="D14">
-        <v>2.667151040977084</v>
+        <v>2.300717738117525</v>
       </c>
       <c r="E14">
-        <v>11.12335110821608</v>
+        <v>5.597785645250807</v>
       </c>
       <c r="F14">
-        <v>50.94423938381927</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>4.080468853276381</v>
+        <v>50.04896014563089</v>
       </c>
       <c r="I14">
-        <v>29.42334949046009</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>9.130477074949129</v>
+        <v>5.667887367230229</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>25.59382193991205</v>
       </c>
       <c r="L14">
-        <v>18.10919529502598</v>
+        <v>8.245467905905002</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>15.17320289008015</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.83466107376325</v>
+        <v>31.72511636707475</v>
       </c>
       <c r="C15">
-        <v>26.7334736726084</v>
+        <v>16.55035708525887</v>
       </c>
       <c r="D15">
-        <v>2.674779474284394</v>
+        <v>2.289318212319725</v>
       </c>
       <c r="E15">
-        <v>11.05157596647847</v>
+        <v>5.599545446218134</v>
       </c>
       <c r="F15">
-        <v>50.64228306025986</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>4.080468853276381</v>
+        <v>49.86546277595814</v>
       </c>
       <c r="I15">
-        <v>29.27974519417332</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>9.088434979263981</v>
+        <v>5.673495772921553</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>25.43805924985165</v>
       </c>
       <c r="L15">
-        <v>17.99423524489799</v>
+        <v>8.223406499262854</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>15.19328690508669</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.64909400170092</v>
+        <v>30.74241558354923</v>
       </c>
       <c r="C16">
-        <v>25.74625914774773</v>
+        <v>15.95082967971945</v>
       </c>
       <c r="D16">
-        <v>2.719766515272506</v>
+        <v>2.224375867515775</v>
       </c>
       <c r="E16">
-        <v>10.63701978497108</v>
+        <v>5.610071433245505</v>
       </c>
       <c r="F16">
-        <v>48.9465637949401</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>4.080468853276381</v>
+        <v>48.82252026094557</v>
       </c>
       <c r="I16">
-        <v>28.46441055776868</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>8.849390859518014</v>
+        <v>5.705946541260507</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>24.62375531518185</v>
       </c>
       <c r="L16">
-        <v>17.33003018347693</v>
+        <v>8.098135319020836</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>15.31040718550599</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.9109148475125</v>
+        <v>30.1341485376192</v>
       </c>
       <c r="C17">
-        <v>25.13273997807077</v>
+        <v>15.57713797826863</v>
       </c>
       <c r="D17">
-        <v>2.748385733372297</v>
+        <v>2.184832763449856</v>
       </c>
       <c r="E17">
-        <v>10.37960275460809</v>
+        <v>5.616915246630651</v>
       </c>
       <c r="F17">
-        <v>47.90693874642758</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>4.080468853276381</v>
+        <v>48.19017221886961</v>
       </c>
       <c r="I17">
-        <v>27.97060548280674</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>8.704313589676849</v>
+        <v>5.726136470210579</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>24.13794074228575</v>
       </c>
       <c r="L17">
-        <v>16.9173993891913</v>
+        <v>8.022298137241982</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>15.38399498640063</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.4821481197207</v>
+        <v>29.78226629918939</v>
       </c>
       <c r="C18">
-        <v>24.77677713144097</v>
+        <v>15.35996067935862</v>
       </c>
       <c r="D18">
-        <v>2.76518157052345</v>
+        <v>2.162180803464976</v>
       </c>
       <c r="E18">
-        <v>10.23032664486957</v>
+        <v>5.620990940720466</v>
       </c>
       <c r="F18">
-        <v>47.30896136744935</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>4.080468853276381</v>
+        <v>47.8291306026622</v>
       </c>
       <c r="I18">
-        <v>27.68878111572232</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>8.621406629425316</v>
+        <v>5.737854778461083</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>23.85696708141239</v>
       </c>
       <c r="L18">
-        <v>16.67804483511095</v>
+        <v>7.979045058323385</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>15.42693364265133</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.33623917869116</v>
+        <v>29.66277523323559</v>
       </c>
       <c r="C19">
-        <v>24.65570853868212</v>
+        <v>15.28603706984203</v>
       </c>
       <c r="D19">
-        <v>2.770922409021165</v>
+        <v>2.154525563001655</v>
       </c>
       <c r="E19">
-        <v>10.17956844936603</v>
+        <v>5.622394586913604</v>
       </c>
       <c r="F19">
-        <v>47.10647371101112</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>4.080468853276381</v>
+        <v>47.70734030381193</v>
       </c>
       <c r="I19">
-        <v>27.59372583504829</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>8.593424867422994</v>
+        <v>5.741840698250913</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>23.76156679841272</v>
       </c>
       <c r="L19">
-        <v>16.59664552185654</v>
+        <v>7.96446280039952</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>15.44157491255928</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.98992436741021</v>
+        <v>30.19910838001352</v>
       </c>
       <c r="C20">
-        <v>25.19836529146214</v>
+        <v>15.61714835163398</v>
       </c>
       <c r="D20">
-        <v>2.745303673472823</v>
+        <v>2.189032288705243</v>
       </c>
       <c r="E20">
-        <v>10.40712948687321</v>
+        <v>5.616172234327655</v>
       </c>
       <c r="F20">
-        <v>48.01760481874219</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>4.080468853276381</v>
+        <v>48.2572090877933</v>
       </c>
       <c r="I20">
-        <v>28.02294128942328</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>8.719700873201914</v>
+        <v>5.723976328854054</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>24.18981603345125</v>
       </c>
       <c r="L20">
-        <v>16.96153107406728</v>
+        <v>8.030333095251708</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>15.37609745255003</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.13755505815122</v>
+        <v>31.9771937571696</v>
       </c>
       <c r="C21">
-        <v>26.98607010812896</v>
+        <v>16.70337986835229</v>
       </c>
       <c r="D21">
-        <v>2.663517244014947</v>
+        <v>2.306191584433161</v>
       </c>
       <c r="E21">
-        <v>11.15771497659702</v>
+        <v>5.596949687558844</v>
       </c>
       <c r="F21">
-        <v>51.09583859783142</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>4.080468853276381</v>
+        <v>50.13710778552224</v>
       </c>
       <c r="I21">
-        <v>29.49235249338638</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>9.152946464144906</v>
+        <v>5.66520342248192</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>25.668355244507</v>
       </c>
       <c r="L21">
-        <v>18.16423087461007</v>
+        <v>8.256067633166465</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>15.16360896800331</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.5081714567144</v>
+        <v>33.12219104529232</v>
       </c>
       <c r="C22">
-        <v>28.13108604470804</v>
+        <v>17.39493394664432</v>
       </c>
       <c r="D22">
-        <v>2.61400170779204</v>
+        <v>2.383965315906916</v>
       </c>
       <c r="E22">
-        <v>11.63917759945303</v>
+        <v>5.585688609465247</v>
       </c>
       <c r="F22">
-        <v>53.23319553849878</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>4.080468853276381</v>
+        <v>51.39130810018811</v>
       </c>
       <c r="I22">
-        <v>30.4757140193796</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>9.555875383078376</v>
+        <v>5.627692793894731</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>26.70961334595501</v>
       </c>
       <c r="L22">
-        <v>18.93505289438763</v>
+        <v>8.407003785675847</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>15.03078466470535</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.77943635013053</v>
+        <v>32.51258557613133</v>
       </c>
       <c r="C23">
-        <v>27.52188624813684</v>
+        <v>17.02743559682986</v>
       </c>
       <c r="D23">
-        <v>2.640014174689857</v>
+        <v>2.342325423792748</v>
       </c>
       <c r="E23">
-        <v>11.38294996553849</v>
+        <v>5.591576423228049</v>
       </c>
       <c r="F23">
-        <v>52.09266348541017</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>4.080468853276381</v>
+        <v>50.71946916998426</v>
       </c>
       <c r="I23">
-        <v>29.94857081215286</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>9.341286965842201</v>
+        <v>5.647632504094338</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>26.15618880339908</v>
       </c>
       <c r="L23">
-        <v>18.52489364001477</v>
+        <v>8.32612593013851</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>15.10108983307083</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.95421784353771</v>
+        <v>30.16974683793251</v>
       </c>
       <c r="C24">
-        <v>25.16870622934241</v>
+        <v>15.59906695765446</v>
       </c>
       <c r="D24">
-        <v>2.746696016211691</v>
+        <v>2.187133432216192</v>
       </c>
       <c r="E24">
-        <v>10.39468866746127</v>
+        <v>5.616507711344691</v>
       </c>
       <c r="F24">
-        <v>47.96757362760449</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>4.080468853276381</v>
+        <v>48.22689393839958</v>
       </c>
       <c r="I24">
-        <v>27.9992738551455</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>8.712742734290019</v>
+        <v>5.724952583069416</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>24.16636843006233</v>
       </c>
       <c r="L24">
-        <v>16.941585795087</v>
+        <v>8.026699412084771</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>15.37966596503445</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.74503382143599</v>
+        <v>27.5655084739147</v>
       </c>
       <c r="C25">
-        <v>22.51095128678174</v>
+        <v>13.97202611185591</v>
       </c>
       <c r="D25">
-        <v>2.874324678698253</v>
+        <v>2.023111385221978</v>
       </c>
       <c r="E25">
-        <v>9.381404757589342</v>
+        <v>5.648703278283971</v>
       </c>
       <c r="F25">
-        <v>43.59941738867737</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>4.080468853276381</v>
+        <v>45.63998873895172</v>
       </c>
       <c r="I25">
-        <v>25.97996520363064</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>8.116819004829082</v>
+        <v>5.812411394425791</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>22.08816587004407</v>
       </c>
       <c r="L25">
-        <v>15.15540048064512</v>
+        <v>7.717718414285033</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>15.70338036463903</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_40/res_line/loading_percent.xlsx
@@ -421,40 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.5811894136019</v>
+        <v>21.03570751816074</v>
       </c>
       <c r="C2">
-        <v>12.69252313581533</v>
+        <v>14.52202683879615</v>
       </c>
       <c r="D2">
-        <v>1.903619332946742</v>
+        <v>6.251675127145965</v>
       </c>
       <c r="E2">
-        <v>5.676717117755089</v>
+        <v>8.426544217975573</v>
       </c>
       <c r="F2">
-        <v>43.81708777303334</v>
+        <v>21.82883022682494</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.880497703078114</v>
+        <v>5.645155005154355</v>
       </c>
       <c r="K2">
-        <v>20.50688022475499</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>7.501842534403676</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>15.13094006119542</v>
       </c>
       <c r="N2">
-        <v>15.95937655032938</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>15.40987418494825</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.19701643018661</v>
+        <v>19.63723411814867</v>
       </c>
       <c r="C3">
-        <v>11.77145650500876</v>
+        <v>13.63893731756793</v>
       </c>
       <c r="D3">
-        <v>1.82279743830885</v>
+        <v>6.063197342496493</v>
       </c>
       <c r="E3">
-        <v>5.698291035031382</v>
+        <v>8.33559884954451</v>
       </c>
       <c r="F3">
-        <v>42.6315723440671</v>
+        <v>21.5371969993</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.92903483188896</v>
+        <v>5.700659386552168</v>
       </c>
       <c r="K3">
-        <v>19.40519562772285</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>7.36272897147073</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>14.29660241703558</v>
       </c>
       <c r="N3">
-        <v>16.14300786348076</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>15.37565761430294</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.32928310019035</v>
+        <v>18.72843492882209</v>
       </c>
       <c r="C4">
-        <v>11.17842915442529</v>
+        <v>13.06747350851255</v>
       </c>
       <c r="D4">
-        <v>1.773081377323977</v>
+        <v>5.946596979797222</v>
       </c>
       <c r="E4">
-        <v>5.712787630899093</v>
+        <v>8.284308747228073</v>
       </c>
       <c r="F4">
-        <v>41.92820300514001</v>
+        <v>21.38425187339051</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.960046134958971</v>
+        <v>5.737334445634708</v>
       </c>
       <c r="K4">
-        <v>18.71521257044597</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>7.280861715662656</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>13.76308171582181</v>
       </c>
       <c r="N4">
-        <v>16.26053653090285</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>15.37569613785288</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.97152044754053</v>
+        <v>18.34541608796006</v>
       </c>
       <c r="C5">
-        <v>10.92973630143443</v>
+        <v>12.82728594808103</v>
       </c>
       <c r="D5">
-        <v>1.752777552629732</v>
+        <v>5.89892207137141</v>
       </c>
       <c r="E5">
-        <v>5.719005992160807</v>
+        <v>8.264542925287682</v>
       </c>
       <c r="F5">
-        <v>41.64776126089782</v>
+        <v>21.32833134266014</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.972991490577647</v>
+        <v>5.752917478866149</v>
       </c>
       <c r="K5">
-        <v>18.43090038489208</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>7.248395058468912</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>13.54050856298828</v>
       </c>
       <c r="N5">
-        <v>16.30960373301651</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>15.38075907498777</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.91187478309983</v>
+        <v>18.28104857320493</v>
       </c>
       <c r="C6">
-        <v>10.88801328123982</v>
+        <v>12.78696302997569</v>
       </c>
       <c r="D6">
-        <v>1.749402892048299</v>
+        <v>5.890997917148792</v>
       </c>
       <c r="E6">
-        <v>5.720057229368398</v>
+        <v>8.261329088503155</v>
       </c>
       <c r="F6">
-        <v>41.60156839324873</v>
+        <v>21.31942747235955</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.975159770633224</v>
+        <v>5.75554312790762</v>
       </c>
       <c r="K6">
-        <v>18.38351018993833</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>7.243058118879925</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>13.5032449429684</v>
       </c>
       <c r="N6">
-        <v>16.31782143166694</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>15.38189732089252</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.32447450354958</v>
+        <v>18.72332081563948</v>
       </c>
       <c r="C7">
-        <v>11.1751038040596</v>
+        <v>13.06426378834536</v>
       </c>
       <c r="D7">
-        <v>1.772807757280126</v>
+        <v>5.945954581306492</v>
       </c>
       <c r="E7">
-        <v>5.712870239415146</v>
+        <v>8.284037595127916</v>
       </c>
       <c r="F7">
-        <v>41.92439579236244</v>
+        <v>21.38347200423875</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.960219468416421</v>
+        <v>5.737542040909119</v>
       </c>
       <c r="K7">
-        <v>18.71139053975997</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>7.280420232108897</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>13.76010063721563</v>
       </c>
       <c r="N7">
-        <v>16.26119355155455</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>15.37574431105832</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.1078029357759</v>
+        <v>20.56387471760561</v>
       </c>
       <c r="C8">
-        <v>12.38057040991176</v>
+        <v>14.22362609886123</v>
       </c>
       <c r="D8">
-        <v>1.875757039638157</v>
+        <v>6.186904387687007</v>
       </c>
       <c r="E8">
-        <v>5.68389411056791</v>
+        <v>8.394236975477455</v>
       </c>
       <c r="F8">
-        <v>43.40323382216153</v>
+        <v>21.72276424115723</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.896984720368832</v>
+        <v>5.663744949934721</v>
       </c>
       <c r="K8">
-        <v>20.1299690770607</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>7.453140873265945</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>14.84776345587883</v>
       </c>
       <c r="N8">
-        <v>16.0216824179801</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>15.3935624956267</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.45325161619182</v>
+        <v>23.77885875541009</v>
       </c>
       <c r="C9">
-        <v>14.5323130470025</v>
+        <v>16.26422171550086</v>
       </c>
       <c r="D9">
-        <v>2.078067674807466</v>
+        <v>6.650049602514603</v>
       </c>
       <c r="E9">
-        <v>5.637173953683425</v>
+        <v>8.646758695525664</v>
       </c>
       <c r="F9">
-        <v>46.49842547351473</v>
+        <v>22.60135064354239</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.782390275172792</v>
+        <v>5.540354153352949</v>
       </c>
       <c r="K9">
-        <v>22.79624724331612</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>7.819976485989051</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>16.93344395602339</v>
       </c>
       <c r="N9">
-        <v>15.59146076451493</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>15.60602602492487</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.81155111391129</v>
+        <v>25.90561027577197</v>
       </c>
       <c r="C10">
-        <v>15.99317205839889</v>
+        <v>17.62141603237988</v>
       </c>
       <c r="D10">
-        <v>2.228901695723613</v>
+        <v>6.981749502167017</v>
       </c>
       <c r="E10">
-        <v>5.609309574706358</v>
+        <v>8.854826427817397</v>
       </c>
       <c r="F10">
-        <v>48.89504218800337</v>
+        <v>23.38341212657447</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.703656909553338</v>
+        <v>5.463818582986301</v>
       </c>
       <c r="K10">
-        <v>24.67898243872341</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>8.106838905946248</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>18.42457833744148</v>
       </c>
       <c r="N10">
-        <v>15.30209517382025</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>15.88389116880129</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.86299107444395</v>
+        <v>26.82322667979852</v>
       </c>
       <c r="C11">
-        <v>16.634090150836</v>
+        <v>18.20824678565814</v>
       </c>
       <c r="D11">
-        <v>2.298536180990419</v>
+        <v>7.130290492340742</v>
       </c>
       <c r="E11">
-        <v>5.598120443844265</v>
+        <v>8.954427383761242</v>
       </c>
       <c r="F11">
-        <v>50.01383585083165</v>
+        <v>23.7698437884923</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.668958674989155</v>
+        <v>5.432345722760224</v>
       </c>
       <c r="K11">
-        <v>25.56407022984568</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>8.241244570781998</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>19.06884994534015</v>
       </c>
       <c r="N11">
-        <v>15.17703551598029</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>16.03936174491727</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.25819745451389</v>
+        <v>27.16363803642954</v>
       </c>
       <c r="C12">
-        <v>16.87361992869161</v>
+        <v>18.42610142782059</v>
       </c>
       <c r="D12">
-        <v>2.32510616243875</v>
+        <v>7.186167047266247</v>
       </c>
       <c r="E12">
-        <v>5.594105833052624</v>
+        <v>8.992858551792313</v>
       </c>
       <c r="F12">
-        <v>50.4418546275495</v>
+        <v>23.92064528108097</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.655974276901439</v>
+        <v>5.420934719543177</v>
       </c>
       <c r="K12">
-        <v>25.92461281366174</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>8.292722651911735</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>19.30798969133155</v>
       </c>
       <c r="N12">
-        <v>15.13070712269045</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>16.10260861524693</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.17321111423363</v>
+        <v>27.09063717150252</v>
       </c>
       <c r="C13">
-        <v>16.82217004968906</v>
+        <v>18.37937612273362</v>
       </c>
       <c r="D13">
-        <v>2.319373939772955</v>
+        <v>7.17415009828199</v>
       </c>
       <c r="E13">
-        <v>5.594960401208422</v>
+        <v>8.984549890837322</v>
       </c>
       <c r="F13">
-        <v>50.34947439608079</v>
+        <v>23.8879679240243</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.658763898403312</v>
+        <v>5.42336928492504</v>
       </c>
       <c r="K13">
-        <v>25.84716146934667</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>8.281609657937066</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>19.25670047868062</v>
       </c>
       <c r="N13">
-        <v>15.14063749480174</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>16.08878983582743</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.89556309306486</v>
+        <v>26.85137363632805</v>
       </c>
       <c r="C14">
-        <v>16.65385857658804</v>
+        <v>18.22625710745428</v>
       </c>
       <c r="D14">
-        <v>2.300717738117525</v>
+        <v>7.13489513773449</v>
       </c>
       <c r="E14">
-        <v>5.597785645250807</v>
+        <v>8.957574804109692</v>
       </c>
       <c r="F14">
-        <v>50.04896014563089</v>
+        <v>23.78216046729273</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.667887367230229</v>
+        <v>5.431396610358792</v>
       </c>
       <c r="K14">
-        <v>25.59382193991205</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>8.245467905905002</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>19.08862056437147</v>
       </c>
       <c r="N14">
-        <v>15.17320289008015</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>16.04447639631627</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.72511636707475</v>
+        <v>26.70390010624026</v>
       </c>
       <c r="C15">
-        <v>16.55035708525887</v>
+        <v>18.13189980882633</v>
       </c>
       <c r="D15">
-        <v>2.289318212319725</v>
+        <v>7.110800873900544</v>
       </c>
       <c r="E15">
-        <v>5.599545446218134</v>
+        <v>8.941144910731891</v>
       </c>
       <c r="F15">
-        <v>49.86546277595814</v>
+        <v>23.71793380673051</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.673495772921553</v>
+        <v>5.436380439584497</v>
       </c>
       <c r="K15">
-        <v>25.43805924985165</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>8.223406499262854</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>18.9850395213852</v>
       </c>
       <c r="N15">
-        <v>15.19328690508669</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>16.01790818281738</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.74241558354923</v>
+        <v>25.84464703075529</v>
       </c>
       <c r="C16">
-        <v>15.95082967971945</v>
+        <v>17.58245257105565</v>
       </c>
       <c r="D16">
-        <v>2.224375867515775</v>
+        <v>6.971991602508345</v>
       </c>
       <c r="E16">
-        <v>5.610071433245505</v>
+        <v>8.848417098036604</v>
       </c>
       <c r="F16">
-        <v>48.82252026094557</v>
+        <v>23.35878022785254</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.705946541260507</v>
+        <v>5.465944879881495</v>
       </c>
       <c r="K16">
-        <v>24.62375531518185</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>8.098135319020836</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>18.38179385882763</v>
       </c>
       <c r="N16">
-        <v>15.31040718550599</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>15.8743326241117</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.1341485376192</v>
+        <v>25.30482305045228</v>
       </c>
       <c r="C17">
-        <v>15.57713797826863</v>
+        <v>17.23757461571287</v>
       </c>
       <c r="D17">
-        <v>2.184832763449856</v>
+        <v>6.886208040674759</v>
       </c>
       <c r="E17">
-        <v>5.616915246630651</v>
+        <v>8.792801221128373</v>
       </c>
       <c r="F17">
-        <v>48.19017221886961</v>
+        <v>23.14635067924303</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.726136470210579</v>
+        <v>5.484955999350959</v>
       </c>
       <c r="K17">
-        <v>24.13794074228575</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>8.022298137241982</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>18.0030448191248</v>
       </c>
       <c r="N17">
-        <v>15.38399498640063</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>15.79384133322311</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.78226629918939</v>
+        <v>24.98963189311319</v>
       </c>
       <c r="C18">
-        <v>15.35996067935862</v>
+        <v>17.03633076986132</v>
       </c>
       <c r="D18">
-        <v>2.162180803464976</v>
+        <v>6.836648033643143</v>
       </c>
       <c r="E18">
-        <v>5.620990940720466</v>
+        <v>8.76127819892111</v>
       </c>
       <c r="F18">
-        <v>47.8291306026622</v>
+        <v>23.02705078129844</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.737854778461083</v>
+        <v>5.496203685746337</v>
       </c>
       <c r="K18">
-        <v>23.85696708141239</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>7.979045058323385</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>17.78198894604447</v>
       </c>
       <c r="N18">
-        <v>15.42693364265133</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>15.75027032147945</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.66277523323559</v>
+        <v>24.88210365581879</v>
       </c>
       <c r="C19">
-        <v>15.28603706984203</v>
+        <v>16.96769780465817</v>
       </c>
       <c r="D19">
-        <v>2.154525563001655</v>
+        <v>6.819831303016347</v>
       </c>
       <c r="E19">
-        <v>5.622394586913604</v>
+        <v>8.750684961695411</v>
       </c>
       <c r="F19">
-        <v>47.70734030381193</v>
+        <v>22.98715126709731</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.741840698250913</v>
+        <v>5.500064955219647</v>
       </c>
       <c r="K19">
-        <v>23.76156679841272</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>7.96446280039952</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>17.70659011464134</v>
       </c>
       <c r="N19">
-        <v>15.44157491255928</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>15.73597987557539</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.19910838001352</v>
+        <v>25.36277383143731</v>
       </c>
       <c r="C20">
-        <v>15.61714835163398</v>
+        <v>17.27458525902299</v>
       </c>
       <c r="D20">
-        <v>2.189032288705243</v>
+        <v>6.895362840866527</v>
       </c>
       <c r="E20">
-        <v>5.616172234327655</v>
+        <v>8.798673403379293</v>
       </c>
       <c r="F20">
-        <v>48.2572090877933</v>
+        <v>23.16866523600779</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.723976328854054</v>
+        <v>5.482899657097104</v>
       </c>
       <c r="K20">
-        <v>24.18981603345125</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>8.030333095251708</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>18.04369501372751</v>
       </c>
       <c r="N20">
-        <v>15.37609745255003</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>15.80212624417736</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.9771937571696</v>
+        <v>26.9218422015107</v>
       </c>
       <c r="C21">
-        <v>16.70337986835229</v>
+        <v>18.271350071387</v>
       </c>
       <c r="D21">
-        <v>2.306191584433161</v>
+        <v>7.146435633947569</v>
       </c>
       <c r="E21">
-        <v>5.596949687558844</v>
+        <v>8.965478628274424</v>
       </c>
       <c r="F21">
-        <v>50.13710778552224</v>
+        <v>23.81311699731025</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.66520342248192</v>
+        <v>5.42902480612211</v>
       </c>
       <c r="K21">
-        <v>25.668355244507</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>8.256067633166465</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>19.13812030276932</v>
       </c>
       <c r="N21">
-        <v>15.16360896800331</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>16.05737216416992</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.12219104529232</v>
+        <v>27.89962356042387</v>
       </c>
       <c r="C22">
-        <v>17.39493394664432</v>
+        <v>18.89736816742894</v>
       </c>
       <c r="D22">
-        <v>2.383965315906916</v>
+        <v>7.308341801209853</v>
       </c>
       <c r="E22">
-        <v>5.585688609465247</v>
+        <v>9.078661431864029</v>
       </c>
       <c r="F22">
-        <v>51.39130810018811</v>
+        <v>24.26036936268221</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.627692793894731</v>
+        <v>5.396784204678855</v>
       </c>
       <c r="K22">
-        <v>26.70961334595501</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>8.407003785675847</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>19.82526030328495</v>
       </c>
       <c r="N22">
-        <v>15.03078466470535</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>16.24976161066001</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.51258557613133</v>
+        <v>27.38149531553654</v>
       </c>
       <c r="C23">
-        <v>17.02743559682986</v>
+        <v>18.56556495168327</v>
       </c>
       <c r="D23">
-        <v>2.342325423792748</v>
+        <v>7.222139285273377</v>
       </c>
       <c r="E23">
-        <v>5.591576423228049</v>
+        <v>9.017871462686882</v>
       </c>
       <c r="F23">
-        <v>50.71946916998426</v>
+        <v>24.0192601867653</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.647632504094338</v>
+        <v>5.413710538432206</v>
       </c>
       <c r="K23">
-        <v>26.15618880339908</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>8.32612593013851</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>19.46107182037337</v>
       </c>
       <c r="N23">
-        <v>15.10108983307083</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>16.14467990984535</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.16974683793251</v>
+        <v>25.33658936366994</v>
       </c>
       <c r="C24">
-        <v>15.59906695765446</v>
+        <v>17.25786199683212</v>
       </c>
       <c r="D24">
-        <v>2.187133432216192</v>
+        <v>6.89122470645394</v>
       </c>
       <c r="E24">
-        <v>5.616507711344691</v>
+        <v>8.796017184318517</v>
       </c>
       <c r="F24">
-        <v>48.22689393839958</v>
+        <v>23.15856801866142</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.724952583069416</v>
+        <v>5.483828341073696</v>
       </c>
       <c r="K24">
-        <v>24.16636843006233</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>8.026699412084771</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>18.02532736928579</v>
       </c>
       <c r="N24">
-        <v>15.37966596503445</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>15.79837222685539</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.5655084739147</v>
+        <v>22.95082811392156</v>
       </c>
       <c r="C25">
-        <v>13.97202611185591</v>
+        <v>15.73717623444945</v>
       </c>
       <c r="D25">
-        <v>2.023111385221978</v>
+        <v>6.526074860846072</v>
       </c>
       <c r="E25">
-        <v>5.648703278283971</v>
+        <v>8.574505611812029</v>
       </c>
       <c r="F25">
-        <v>45.63998873895172</v>
+        <v>22.34007971334314</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.812411394425791</v>
+        <v>5.57134264226277</v>
       </c>
       <c r="K25">
-        <v>22.08816587004407</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>7.717718414285033</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>16.35372395208595</v>
       </c>
       <c r="N25">
-        <v>15.70338036463903</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>15.5280983254341</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_40/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.03570751816074</v>
+        <v>14.48654696685555</v>
       </c>
       <c r="C2">
-        <v>14.52202683879615</v>
+        <v>8.240977258690252</v>
       </c>
       <c r="D2">
-        <v>6.251675127145965</v>
+        <v>9.235474447145522</v>
       </c>
       <c r="E2">
-        <v>8.426544217975573</v>
+        <v>13.51009371198987</v>
       </c>
       <c r="F2">
-        <v>21.82883022682494</v>
+        <v>31.73970379576939</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669784106</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.645155005154355</v>
+        <v>9.944062962671387</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.13094006119542</v>
+        <v>16.71181436925978</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.40987418494825</v>
+        <v>23.80790824098542</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.63723411814867</v>
+        <v>13.91101951493269</v>
       </c>
       <c r="C3">
-        <v>13.63893731756793</v>
+        <v>7.730390033144063</v>
       </c>
       <c r="D3">
-        <v>6.063197342496493</v>
+        <v>9.216359259248568</v>
       </c>
       <c r="E3">
-        <v>8.33559884954451</v>
+        <v>13.53106918420188</v>
       </c>
       <c r="F3">
-        <v>21.5371969993</v>
+        <v>31.83984451700831</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.700659386552168</v>
+        <v>9.974609070204284</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.29660241703558</v>
+        <v>16.52247938479737</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.37565761430294</v>
+        <v>23.91556842161789</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.72843492882209</v>
+        <v>13.54625247433391</v>
       </c>
       <c r="C4">
-        <v>13.06747350851255</v>
+        <v>7.3979282640722</v>
       </c>
       <c r="D4">
-        <v>5.946596979797222</v>
+        <v>9.205663590728118</v>
       </c>
       <c r="E4">
-        <v>8.284308747228073</v>
+        <v>13.54613840086088</v>
       </c>
       <c r="F4">
-        <v>21.38425187339051</v>
+        <v>31.91096345801212</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.737334445634708</v>
+        <v>9.994593257764627</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.76308171582181</v>
+        <v>16.40714083840787</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.37569613785288</v>
+        <v>23.98855442043322</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.34541608796006</v>
+        <v>13.39495098139617</v>
       </c>
       <c r="C5">
-        <v>12.82728594808103</v>
+        <v>7.257699424194038</v>
       </c>
       <c r="D5">
-        <v>5.89892207137141</v>
+        <v>9.201569485162034</v>
       </c>
       <c r="E5">
-        <v>8.264542925287682</v>
+        <v>13.55282988678308</v>
       </c>
       <c r="F5">
-        <v>21.32833134266014</v>
+        <v>31.94235665550525</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.752917478866149</v>
+        <v>10.00304635976567</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.54050856298828</v>
+        <v>16.36041412054749</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.38075907498777</v>
+        <v>24.0200202566911</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.28104857320493</v>
+        <v>13.36967364434066</v>
       </c>
       <c r="C6">
-        <v>12.78696302997569</v>
+        <v>7.234128484294719</v>
       </c>
       <c r="D6">
-        <v>5.890997917148792</v>
+        <v>9.200905709831193</v>
       </c>
       <c r="E6">
-        <v>8.261329088503155</v>
+        <v>13.55397425717054</v>
       </c>
       <c r="F6">
-        <v>21.31942747235955</v>
+        <v>31.94771481285344</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.75554312790762</v>
+        <v>10.0044686888588</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.5032449429684</v>
+        <v>16.35267307713022</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.38189732089252</v>
+        <v>24.02534901580601</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.72332081563948</v>
+        <v>13.54422242994892</v>
       </c>
       <c r="C7">
-        <v>13.06426378834536</v>
+        <v>7.396056282142149</v>
       </c>
       <c r="D7">
-        <v>5.945954581306492</v>
+        <v>9.205607301969517</v>
       </c>
       <c r="E7">
-        <v>8.284037595127916</v>
+        <v>13.54622641516125</v>
       </c>
       <c r="F7">
-        <v>21.38347200423875</v>
+        <v>31.91137708725532</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.737542040909119</v>
+        <v>9.994706006037141</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.76010063721563</v>
+        <v>16.40650949444543</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.37574431105832</v>
+        <v>23.98897181109142</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.56387471760561</v>
+        <v>14.29058675869829</v>
       </c>
       <c r="C8">
-        <v>14.22362609886123</v>
+        <v>8.068871208454933</v>
       </c>
       <c r="D8">
-        <v>6.186904387687007</v>
+        <v>9.228669086768724</v>
       </c>
       <c r="E8">
-        <v>8.394236975477455</v>
+        <v>13.51687145352213</v>
       </c>
       <c r="F8">
-        <v>21.72276424115723</v>
+        <v>31.77222708533209</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.663744949934721</v>
+        <v>9.954340474956453</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.84776345587883</v>
+        <v>16.64636901303066</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.3935624956267</v>
+        <v>23.84359681464541</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.77885875541009</v>
+        <v>15.65587662853101</v>
       </c>
       <c r="C9">
-        <v>16.26422171550086</v>
+        <v>9.23731482250213</v>
       </c>
       <c r="D9">
-        <v>6.650049602514603</v>
+        <v>9.282031425263956</v>
       </c>
       <c r="E9">
-        <v>8.646758695525664</v>
+        <v>13.47668615368232</v>
       </c>
       <c r="F9">
-        <v>22.60135064354239</v>
+        <v>31.57621933887826</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.540354153352949</v>
+        <v>9.884915177762753</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.93344395602339</v>
+        <v>17.12200196913667</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.60602602492487</v>
+        <v>23.61343776194103</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.90561027577197</v>
+        <v>16.58992355463608</v>
       </c>
       <c r="C10">
-        <v>17.62141603237988</v>
+        <v>10.00344169797898</v>
       </c>
       <c r="D10">
-        <v>6.981749502167017</v>
+        <v>9.326025543749008</v>
       </c>
       <c r="E10">
-        <v>8.854826427817397</v>
+        <v>13.45775577746594</v>
       </c>
       <c r="F10">
-        <v>23.38341212657447</v>
+        <v>31.47962799472348</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.463818582986301</v>
+        <v>9.839815672502402</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.42457833744148</v>
+        <v>17.47200939203137</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.88389116880129</v>
+        <v>23.47824134432572</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.82322667979852</v>
+        <v>16.99833506246378</v>
       </c>
       <c r="C11">
-        <v>18.20824678565814</v>
+        <v>10.3319376910695</v>
       </c>
       <c r="D11">
-        <v>7.130290492340742</v>
+        <v>9.347039575943098</v>
       </c>
       <c r="E11">
-        <v>8.954427383761242</v>
+        <v>13.45144205011673</v>
       </c>
       <c r="F11">
-        <v>23.7698437884923</v>
+        <v>31.44608545964117</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.432345722760224</v>
+        <v>9.820576209307747</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.06884994534015</v>
+        <v>17.63080181295783</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.03936174491727</v>
+        <v>23.42418512782362</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.16363803642954</v>
+        <v>17.15051473763639</v>
       </c>
       <c r="C12">
-        <v>18.42610142782059</v>
+        <v>10.45345570203355</v>
       </c>
       <c r="D12">
-        <v>7.186167047266247</v>
+        <v>9.355137320339033</v>
       </c>
       <c r="E12">
-        <v>8.992858551792313</v>
+        <v>13.44938124640444</v>
       </c>
       <c r="F12">
-        <v>23.92064528108097</v>
+        <v>31.43488605235828</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.420934719543177</v>
+        <v>9.813473917002383</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.30798969133155</v>
+        <v>17.69082512370643</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.10260861524693</v>
+        <v>23.40479295468537</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.09063717150252</v>
+        <v>17.11785180156799</v>
       </c>
       <c r="C13">
-        <v>18.37937612273362</v>
+        <v>10.42741248761477</v>
       </c>
       <c r="D13">
-        <v>7.17415009828199</v>
+        <v>9.353387152424098</v>
       </c>
       <c r="E13">
-        <v>8.984549890837322</v>
+        <v>13.44981040427002</v>
       </c>
       <c r="F13">
-        <v>23.8879679240243</v>
+        <v>31.43723111780273</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.42336928492504</v>
+        <v>9.814995376027396</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.25670047868062</v>
+        <v>17.67790355863959</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.08878983582743</v>
+        <v>23.40892136226844</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.85137363632805</v>
+        <v>17.01090516702183</v>
       </c>
       <c r="C14">
-        <v>18.22625710745428</v>
+        <v>10.3419926749508</v>
       </c>
       <c r="D14">
-        <v>7.13489513773449</v>
+        <v>9.347702994627905</v>
       </c>
       <c r="E14">
-        <v>8.957574804109692</v>
+        <v>13.4512658939084</v>
       </c>
       <c r="F14">
-        <v>23.78216046729273</v>
+        <v>31.44513392826705</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.431396610358792</v>
+        <v>9.819988227965263</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.08862056437147</v>
+        <v>17.63574239236167</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.04447639631627</v>
+        <v>23.42256808251965</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.70390010624026</v>
+        <v>16.94507182906415</v>
       </c>
       <c r="C15">
-        <v>18.13189980882633</v>
+        <v>10.28929610242238</v>
       </c>
       <c r="D15">
-        <v>7.110800873900544</v>
+        <v>9.344239426847469</v>
       </c>
       <c r="E15">
-        <v>8.941144910731891</v>
+        <v>13.45220039560207</v>
       </c>
       <c r="F15">
-        <v>23.71793380673051</v>
+        <v>31.45017048893873</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.436380439584497</v>
+        <v>9.82307035332823</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.9850395213852</v>
+        <v>17.60990204365365</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.01790818281738</v>
+        <v>23.43106765410067</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.84464703075529</v>
+        <v>16.56289168773316</v>
       </c>
       <c r="C16">
-        <v>17.58245257105565</v>
+        <v>9.981571036366542</v>
       </c>
       <c r="D16">
-        <v>6.971991602508345</v>
+        <v>9.324672051313543</v>
       </c>
       <c r="E16">
-        <v>8.848417098036604</v>
+        <v>13.45821460426536</v>
       </c>
       <c r="F16">
-        <v>23.35878022785254</v>
+        <v>31.48202994357966</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.465944879881495</v>
+        <v>9.841098678834131</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.38179385882763</v>
+        <v>17.46161933630906</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.8743326241117</v>
+        <v>23.48192447715953</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.30482305045228</v>
+        <v>16.32413275469779</v>
       </c>
       <c r="C17">
-        <v>17.23757461571287</v>
+        <v>9.787665353699989</v>
       </c>
       <c r="D17">
-        <v>6.886208040674759</v>
+        <v>9.312921836318026</v>
       </c>
       <c r="E17">
-        <v>8.792801221128373</v>
+        <v>13.46249243060586</v>
       </c>
       <c r="F17">
-        <v>23.14635067924303</v>
+        <v>31.50424317059765</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.484955999350959</v>
+        <v>9.852485214181931</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.0030448191248</v>
+        <v>17.37050981741296</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.79384133322311</v>
+        <v>23.51503554513942</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.98963189311319</v>
+        <v>16.18525797003018</v>
       </c>
       <c r="C18">
-        <v>17.03633076986132</v>
+        <v>9.674251354537846</v>
       </c>
       <c r="D18">
-        <v>6.836648033643143</v>
+        <v>9.306257864786639</v>
       </c>
       <c r="E18">
-        <v>8.76127819892111</v>
+        <v>13.46516923046758</v>
       </c>
       <c r="F18">
-        <v>23.02705078129844</v>
+        <v>31.51799789787255</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.496203685746337</v>
+        <v>9.859154617685743</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.78198894604447</v>
+        <v>17.31806849659514</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.75027032147945</v>
+        <v>23.53478053109831</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.88210365581879</v>
+        <v>16.13797513107638</v>
       </c>
       <c r="C19">
-        <v>16.96769780465817</v>
+        <v>9.635527607141988</v>
       </c>
       <c r="D19">
-        <v>6.819831303016347</v>
+        <v>9.304017890508396</v>
       </c>
       <c r="E19">
-        <v>8.750684961695411</v>
+        <v>13.46611270886386</v>
       </c>
       <c r="F19">
-        <v>22.98715126709731</v>
+        <v>31.52282279364491</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.500064955219647</v>
+        <v>9.861433411280972</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.70659011464134</v>
+        <v>17.30030775003256</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.73597987557539</v>
+        <v>23.5415859139313</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.36277383143731</v>
+        <v>16.34970996828626</v>
       </c>
       <c r="C20">
-        <v>17.27458525902299</v>
+        <v>9.808501980708391</v>
       </c>
       <c r="D20">
-        <v>6.895362840866527</v>
+        <v>9.314162919081378</v>
       </c>
       <c r="E20">
-        <v>8.798673403379293</v>
+        <v>13.46201466390617</v>
       </c>
       <c r="F20">
-        <v>23.16866523600779</v>
+        <v>31.50177723201598</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.482899657097104</v>
+        <v>9.851260663070734</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.04369501372751</v>
+        <v>17.38021280540435</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.80212624417736</v>
+        <v>23.51143827692577</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.9218422015107</v>
+        <v>17.04238597387433</v>
       </c>
       <c r="C21">
-        <v>18.271350071387</v>
+        <v>10.367160576747</v>
       </c>
       <c r="D21">
-        <v>7.146435633947569</v>
+        <v>9.349368795446864</v>
       </c>
       <c r="E21">
-        <v>8.965478628274424</v>
+        <v>13.45082942672123</v>
       </c>
       <c r="F21">
-        <v>23.81311699731025</v>
+        <v>31.44277185223561</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.42902480612211</v>
+        <v>9.818516734550977</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.13812030276932</v>
+        <v>17.64812944320008</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.05737216416992</v>
+        <v>23.41853040472595</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.89962356042387</v>
+        <v>17.4806139484905</v>
       </c>
       <c r="C22">
-        <v>18.89736816742894</v>
+        <v>10.71551353248097</v>
       </c>
       <c r="D22">
-        <v>7.308341801209853</v>
+        <v>9.373193151523461</v>
       </c>
       <c r="E22">
-        <v>9.078661431864029</v>
+        <v>13.44544287496433</v>
       </c>
       <c r="F22">
-        <v>24.26036936268221</v>
+        <v>31.41296844032298</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.396784204678855</v>
+        <v>9.79818482281369</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.82526030328495</v>
+        <v>17.82257854905935</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.24976161066001</v>
+        <v>23.36409479198397</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.38149531553654</v>
+        <v>17.24807897779548</v>
       </c>
       <c r="C23">
-        <v>18.56556495168327</v>
+        <v>10.53112347937823</v>
       </c>
       <c r="D23">
-        <v>7.222139285273377</v>
+        <v>9.36040431787344</v>
       </c>
       <c r="E23">
-        <v>9.017871462686882</v>
+        <v>13.44814190969016</v>
       </c>
       <c r="F23">
-        <v>24.0192601867653</v>
+        <v>31.42807136292396</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.413710538432206</v>
+        <v>9.808938705060337</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.46107182037337</v>
+        <v>17.72954631502137</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.14467990984535</v>
+        <v>23.39257072701384</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.33658936366994</v>
+        <v>16.33815151383504</v>
       </c>
       <c r="C24">
-        <v>17.25786199683212</v>
+        <v>9.799087769089654</v>
       </c>
       <c r="D24">
-        <v>6.89122470645394</v>
+        <v>9.313601540646335</v>
       </c>
       <c r="E24">
-        <v>8.796017184318517</v>
+        <v>13.46222998496318</v>
       </c>
       <c r="F24">
-        <v>23.15856801866142</v>
+        <v>31.50288901811583</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.483828341073696</v>
+        <v>9.851813899049487</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.02532736928579</v>
+        <v>17.37582627174576</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.79837222685539</v>
+        <v>23.51306239390532</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.95082811392156</v>
+        <v>15.29807495653768</v>
       </c>
       <c r="C25">
-        <v>15.73717623444945</v>
+        <v>8.937427633310714</v>
       </c>
       <c r="D25">
-        <v>6.526074860846072</v>
+        <v>9.266741412232674</v>
       </c>
       <c r="E25">
-        <v>8.574505611812029</v>
+        <v>13.48569647954042</v>
       </c>
       <c r="F25">
-        <v>22.34007971334314</v>
+        <v>31.62095528387196</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.57134264226277</v>
+        <v>9.902657390386672</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.35372395208595</v>
+        <v>16.99304129737314</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.5280983254341</v>
+        <v>23.66977821040408</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_40/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.48654696685555</v>
+        <v>21.03570751816067</v>
       </c>
       <c r="C2">
-        <v>8.240977258690252</v>
+        <v>14.5220268387963</v>
       </c>
       <c r="D2">
-        <v>9.235474447145522</v>
+        <v>6.251675127145965</v>
       </c>
       <c r="E2">
-        <v>13.51009371198987</v>
+        <v>8.426544217975525</v>
       </c>
       <c r="F2">
-        <v>31.73970379576939</v>
+        <v>21.828830226825</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.944062962671387</v>
+        <v>5.645155005154323</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.71181436925978</v>
+        <v>15.13094006119542</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>23.80790824098542</v>
+        <v>15.40987418494833</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.91101951493269</v>
+        <v>19.63723411814864</v>
       </c>
       <c r="C3">
-        <v>7.730390033144063</v>
+        <v>13.63893731756794</v>
       </c>
       <c r="D3">
-        <v>9.216359259248568</v>
+        <v>6.06319734249627</v>
       </c>
       <c r="E3">
-        <v>13.53106918420188</v>
+        <v>8.335598849544395</v>
       </c>
       <c r="F3">
-        <v>31.83984451700831</v>
+        <v>21.5371969992998</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.974609070204284</v>
+        <v>5.700659386552227</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.52247938479737</v>
+        <v>14.29660241703557</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>23.91556842161789</v>
+        <v>15.37565761430282</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.54625247433391</v>
+        <v>18.72843492882204</v>
       </c>
       <c r="C4">
-        <v>7.3979282640722</v>
+        <v>13.06747350851271</v>
       </c>
       <c r="D4">
-        <v>9.205663590728118</v>
+        <v>5.946596979797158</v>
       </c>
       <c r="E4">
-        <v>13.54613840086088</v>
+        <v>8.284308747228062</v>
       </c>
       <c r="F4">
-        <v>31.91096345801212</v>
+        <v>21.38425187339053</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.994593257764627</v>
+        <v>5.737334445634764</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.40714083840787</v>
+        <v>13.76308171582182</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>23.98855442043322</v>
+        <v>15.37569613785294</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.39495098139617</v>
+        <v>18.34541608796003</v>
       </c>
       <c r="C5">
-        <v>7.257699424194038</v>
+        <v>12.82728594808103</v>
       </c>
       <c r="D5">
-        <v>9.201569485162034</v>
+        <v>5.898922071371288</v>
       </c>
       <c r="E5">
-        <v>13.55282988678308</v>
+        <v>8.264542925287643</v>
       </c>
       <c r="F5">
-        <v>31.94235665550525</v>
+        <v>21.32833134265999</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.00304635976567</v>
+        <v>5.752917478866179</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.36041412054749</v>
+        <v>13.54050856298827</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>24.0200202566911</v>
+        <v>15.38075907498769</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.36967364434066</v>
+        <v>18.2810485732049</v>
       </c>
       <c r="C6">
-        <v>7.234128484294719</v>
+        <v>12.78696302997571</v>
       </c>
       <c r="D6">
-        <v>9.200905709831193</v>
+        <v>5.890997917148863</v>
       </c>
       <c r="E6">
-        <v>13.55397425717054</v>
+        <v>8.261329088503262</v>
       </c>
       <c r="F6">
-        <v>31.94771481285344</v>
+        <v>21.31942747235976</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.0044686888588</v>
+        <v>5.755543127907684</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.35267307713022</v>
+        <v>13.50324494296841</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>24.02534901580601</v>
+        <v>15.38189732089262</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.54422242994892</v>
+        <v>18.72332081563958</v>
       </c>
       <c r="C7">
-        <v>7.396056282142149</v>
+        <v>13.06426378834531</v>
       </c>
       <c r="D7">
-        <v>9.205607301969517</v>
+        <v>5.945954581306539</v>
       </c>
       <c r="E7">
-        <v>13.54622641516125</v>
+        <v>8.284037595127925</v>
       </c>
       <c r="F7">
-        <v>31.91137708725532</v>
+        <v>21.38347200423875</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.994706006037141</v>
+        <v>5.73754204090909</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.40650949444543</v>
+        <v>13.76010063721562</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>23.98897181109142</v>
+        <v>15.37574431105829</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.29058675869829</v>
+        <v>20.56387471760562</v>
       </c>
       <c r="C8">
-        <v>8.068871208454933</v>
+        <v>14.22362609886114</v>
       </c>
       <c r="D8">
-        <v>9.228669086768724</v>
+        <v>6.186904387686995</v>
       </c>
       <c r="E8">
-        <v>13.51687145352213</v>
+        <v>8.394236975477416</v>
       </c>
       <c r="F8">
-        <v>31.77222708533209</v>
+        <v>21.72276424115714</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.954340474956453</v>
+        <v>5.663744949934662</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.64636901303066</v>
+        <v>14.84776345587883</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>23.84359681464541</v>
+        <v>15.39356249562664</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.65587662853101</v>
+        <v>23.77885875541013</v>
       </c>
       <c r="C9">
-        <v>9.23731482250213</v>
+        <v>16.26422171550082</v>
       </c>
       <c r="D9">
-        <v>9.282031425263956</v>
+        <v>6.650049602514531</v>
       </c>
       <c r="E9">
-        <v>13.47668615368232</v>
+        <v>8.646758695525673</v>
       </c>
       <c r="F9">
-        <v>31.57621933887826</v>
+        <v>22.60135064354228</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.884915177762753</v>
+        <v>5.540354153352969</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.12200196913667</v>
+        <v>16.93344395602341</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>23.61343776194103</v>
+        <v>15.60602602492477</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.58992355463608</v>
+        <v>25.90561027577197</v>
       </c>
       <c r="C10">
-        <v>10.00344169797898</v>
+        <v>17.62141603237988</v>
       </c>
       <c r="D10">
-        <v>9.326025543749008</v>
+        <v>6.981749502166955</v>
       </c>
       <c r="E10">
-        <v>13.45775577746594</v>
+        <v>8.854826427817434</v>
       </c>
       <c r="F10">
-        <v>31.47962799472348</v>
+        <v>23.38341212657446</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.839815672502402</v>
+        <v>5.463818582986417</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.47200939203137</v>
+        <v>18.42457833744147</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>23.47824134432572</v>
+        <v>15.88389116880129</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.99833506246378</v>
+        <v>26.82322667979848</v>
       </c>
       <c r="C11">
-        <v>10.3319376910695</v>
+        <v>18.20824678565809</v>
       </c>
       <c r="D11">
-        <v>9.347039575943098</v>
+        <v>7.13029049234071</v>
       </c>
       <c r="E11">
-        <v>13.45144205011673</v>
+        <v>8.954427383761276</v>
       </c>
       <c r="F11">
-        <v>31.44608545964117</v>
+        <v>23.76984378849238</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.820576209307747</v>
+        <v>5.432345722760228</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.63080181295783</v>
+        <v>19.06884994534014</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>23.42418512782362</v>
+        <v>16.03936174491732</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.15051473763639</v>
+        <v>27.16363803642957</v>
       </c>
       <c r="C12">
-        <v>10.45345570203355</v>
+        <v>18.42610142782058</v>
       </c>
       <c r="D12">
-        <v>9.355137320339033</v>
+        <v>7.186167047266151</v>
       </c>
       <c r="E12">
-        <v>13.44938124640444</v>
+        <v>8.992858551792358</v>
       </c>
       <c r="F12">
-        <v>31.43488605235828</v>
+        <v>23.92064528108091</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.813473917002383</v>
+        <v>5.420934719543234</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.69082512370643</v>
+        <v>19.30798969133156</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>23.40479295468537</v>
+        <v>16.10260861524691</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.11785180156799</v>
+        <v>27.09063717150249</v>
       </c>
       <c r="C13">
-        <v>10.42741248761477</v>
+        <v>18.37937612273363</v>
       </c>
       <c r="D13">
-        <v>9.353387152424098</v>
+        <v>7.174150098282049</v>
       </c>
       <c r="E13">
-        <v>13.44981040427002</v>
+        <v>8.984549890837307</v>
       </c>
       <c r="F13">
-        <v>31.43723111780273</v>
+        <v>23.88796792402438</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.814995376027396</v>
+        <v>5.423369284924981</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.67790355863959</v>
+        <v>19.2567004786806</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>23.40892136226844</v>
+        <v>16.08878983582748</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.01090516702183</v>
+        <v>26.85137363632806</v>
       </c>
       <c r="C14">
-        <v>10.3419926749508</v>
+        <v>18.22625710745416</v>
       </c>
       <c r="D14">
-        <v>9.347702994627905</v>
+        <v>7.134895137734379</v>
       </c>
       <c r="E14">
-        <v>13.4512658939084</v>
+        <v>8.957574804109623</v>
       </c>
       <c r="F14">
-        <v>31.44513392826705</v>
+        <v>23.78216046729263</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.819988227965263</v>
+        <v>5.431396610358787</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.63574239236167</v>
+        <v>19.08862056437149</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>23.42256808251965</v>
+        <v>16.04447639631621</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.94507182906415</v>
+        <v>26.70390010624022</v>
       </c>
       <c r="C15">
-        <v>10.28929610242238</v>
+        <v>18.13189980882645</v>
       </c>
       <c r="D15">
-        <v>9.344239426847469</v>
+        <v>7.110800873900638</v>
       </c>
       <c r="E15">
-        <v>13.45220039560207</v>
+        <v>8.941144910732039</v>
       </c>
       <c r="F15">
-        <v>31.45017048893873</v>
+        <v>23.71793380673049</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.82307035332823</v>
+        <v>5.436380439584579</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.60990204365365</v>
+        <v>18.98503952138516</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>23.43106765410067</v>
+        <v>16.0179081828174</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.56289168773316</v>
+        <v>25.84464703075538</v>
       </c>
       <c r="C16">
-        <v>9.981571036366542</v>
+        <v>17.58245257105569</v>
       </c>
       <c r="D16">
-        <v>9.324672051313543</v>
+        <v>6.971991602508447</v>
       </c>
       <c r="E16">
-        <v>13.45821460426536</v>
+        <v>8.848417098036522</v>
       </c>
       <c r="F16">
-        <v>31.48202994357966</v>
+        <v>23.35878022785241</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.841098678834131</v>
+        <v>5.465944879881406</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.46161933630906</v>
+        <v>18.38179385882767</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>23.48192447715953</v>
+        <v>15.87433262411153</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.32413275469779</v>
+        <v>25.30482305045224</v>
       </c>
       <c r="C17">
-        <v>9.787665353699989</v>
+        <v>17.23757461571284</v>
       </c>
       <c r="D17">
-        <v>9.312921836318026</v>
+        <v>6.886208040674662</v>
       </c>
       <c r="E17">
-        <v>13.46249243060586</v>
+        <v>8.792801221128325</v>
       </c>
       <c r="F17">
-        <v>31.50424317059765</v>
+        <v>23.14635067924311</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.852485214181931</v>
+        <v>5.484955999350928</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.37050981741296</v>
+        <v>18.00304481912479</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>23.51503554513942</v>
+        <v>15.79384133322322</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.18525797003018</v>
+        <v>24.98963189311313</v>
       </c>
       <c r="C18">
-        <v>9.674251354537846</v>
+        <v>17.03633076986123</v>
       </c>
       <c r="D18">
-        <v>9.306257864786639</v>
+        <v>6.836648033643078</v>
       </c>
       <c r="E18">
-        <v>13.46516923046758</v>
+        <v>8.761278198921058</v>
       </c>
       <c r="F18">
-        <v>31.51799789787255</v>
+        <v>23.02705078129856</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.859154617685743</v>
+        <v>5.496203685746311</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.31806849659514</v>
+        <v>17.78198894604445</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>23.53478053109831</v>
+        <v>15.75027032147957</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.13797513107638</v>
+        <v>24.88210365581881</v>
       </c>
       <c r="C19">
-        <v>9.635527607141988</v>
+        <v>16.96769780465809</v>
       </c>
       <c r="D19">
-        <v>9.304017890508396</v>
+        <v>6.819831303016237</v>
       </c>
       <c r="E19">
-        <v>13.46611270886386</v>
+        <v>8.750684961695374</v>
       </c>
       <c r="F19">
-        <v>31.52282279364491</v>
+        <v>22.98715126709731</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.861433411280972</v>
+        <v>5.500064955219647</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.30030775003256</v>
+        <v>17.70659011464133</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>23.5415859139313</v>
+        <v>15.73597987557542</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.34970996828626</v>
+        <v>25.36277383143725</v>
       </c>
       <c r="C20">
-        <v>9.808501980708391</v>
+        <v>17.27458525902302</v>
       </c>
       <c r="D20">
-        <v>9.314162919081378</v>
+        <v>6.895362840866562</v>
       </c>
       <c r="E20">
-        <v>13.46201466390617</v>
+        <v>8.798673403379293</v>
       </c>
       <c r="F20">
-        <v>31.50177723201598</v>
+        <v>23.1686652360077</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.851260663070734</v>
+        <v>5.482899657097012</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.38021280540435</v>
+        <v>18.04369501372749</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>23.51143827692577</v>
+        <v>15.80212624417727</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.04238597387433</v>
+        <v>26.9218422015106</v>
       </c>
       <c r="C21">
-        <v>10.367160576747</v>
+        <v>18.27135007138699</v>
       </c>
       <c r="D21">
-        <v>9.349368795446864</v>
+        <v>7.146435633947551</v>
       </c>
       <c r="E21">
-        <v>13.45082942672123</v>
+        <v>8.965478628274431</v>
       </c>
       <c r="F21">
-        <v>31.44277185223561</v>
+        <v>23.81311699731022</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.818516734550977</v>
+        <v>5.429024806122169</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.64812944320008</v>
+        <v>19.13812030276929</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>23.41853040472595</v>
+        <v>16.05737216416994</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.4806139484905</v>
+        <v>27.89962356042388</v>
       </c>
       <c r="C22">
-        <v>10.71551353248097</v>
+        <v>18.89736816742889</v>
       </c>
       <c r="D22">
-        <v>9.373193151523461</v>
+        <v>7.308341801209838</v>
       </c>
       <c r="E22">
-        <v>13.44544287496433</v>
+        <v>9.078661431864067</v>
       </c>
       <c r="F22">
-        <v>31.41296844032298</v>
+        <v>24.26036936268209</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.79818482281369</v>
+        <v>5.396784204678936</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.82257854905935</v>
+        <v>19.82526030328495</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>23.36409479198397</v>
+        <v>16.24976161065992</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.24807897779548</v>
+        <v>27.38149531553654</v>
       </c>
       <c r="C23">
-        <v>10.53112347937823</v>
+        <v>18.56556495168327</v>
       </c>
       <c r="D23">
-        <v>9.36040431787344</v>
+        <v>7.222139285273254</v>
       </c>
       <c r="E23">
-        <v>13.44814190969016</v>
+        <v>9.017871462686927</v>
       </c>
       <c r="F23">
-        <v>31.42807136292396</v>
+        <v>24.01926018676532</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.808938705060337</v>
+        <v>5.413710538432314</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.72954631502137</v>
+        <v>19.46107182037334</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>23.39257072701384</v>
+        <v>16.14467990984538</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.33815151383504</v>
+        <v>25.33658936366997</v>
       </c>
       <c r="C24">
-        <v>9.799087769089654</v>
+        <v>17.25786199683208</v>
       </c>
       <c r="D24">
-        <v>9.313601540646335</v>
+        <v>6.891224706453898</v>
       </c>
       <c r="E24">
-        <v>13.46222998496318</v>
+        <v>8.79601718431848</v>
       </c>
       <c r="F24">
-        <v>31.50288901811583</v>
+        <v>23.15856801866137</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.851813899049487</v>
+        <v>5.483828341073668</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.37582627174576</v>
+        <v>18.02532736928582</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>23.51306239390532</v>
+        <v>15.79837222685535</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.29807495653768</v>
+        <v>22.95082811392162</v>
       </c>
       <c r="C25">
-        <v>8.937427633310714</v>
+        <v>15.73717623444949</v>
       </c>
       <c r="D25">
-        <v>9.266741412232674</v>
+        <v>6.526074860846067</v>
       </c>
       <c r="E25">
-        <v>13.48569647954042</v>
+        <v>8.574505611812071</v>
       </c>
       <c r="F25">
-        <v>31.62095528387196</v>
+        <v>22.34007971334306</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.902657390386672</v>
+        <v>5.571342642262795</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.99304129737314</v>
+        <v>16.35372395208596</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>23.66977821040408</v>
+        <v>15.52809832543402</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_40/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.03570751816067</v>
+        <v>16.20512397587122</v>
       </c>
       <c r="C2">
-        <v>14.5220268387963</v>
+        <v>7.735462946102698</v>
       </c>
       <c r="D2">
-        <v>6.251675127145965</v>
+        <v>2.406314053448146</v>
       </c>
       <c r="E2">
-        <v>8.426544217975525</v>
+        <v>5.515744804384036</v>
       </c>
       <c r="F2">
-        <v>21.828830226825</v>
+        <v>35.3562052616774</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669784106</v>
+        <v>4.167735287343266</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>4.734914617773183</v>
       </c>
       <c r="J2">
-        <v>5.645155005154323</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>24.30463346565154</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.43350707522454</v>
       </c>
       <c r="M2">
-        <v>15.13094006119542</v>
+        <v>13.74618874947054</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.012298552482727</v>
       </c>
       <c r="O2">
-        <v>15.40987418494833</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>16.14325062459934</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.63723411814864</v>
+        <v>15.3021036120538</v>
       </c>
       <c r="C3">
-        <v>13.63893731756794</v>
+        <v>7.186954121657978</v>
       </c>
       <c r="D3">
-        <v>6.06319734249627</v>
+        <v>2.347129424881282</v>
       </c>
       <c r="E3">
-        <v>8.335598849544395</v>
+        <v>5.343155190657128</v>
       </c>
       <c r="F3">
-        <v>21.5371969992998</v>
+        <v>34.56585425155725</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>4.428828936593706</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4.947441436220109</v>
       </c>
       <c r="J3">
-        <v>5.700659386552227</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>23.9716685540845</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.354965990069406</v>
       </c>
       <c r="M3">
-        <v>14.29660241703557</v>
+        <v>13.05298305968479</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.798513965534414</v>
       </c>
       <c r="O3">
-        <v>15.37565761430282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>16.21961067287087</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.72843492882204</v>
+        <v>14.72027181991058</v>
       </c>
       <c r="C4">
-        <v>13.06747350851271</v>
+        <v>6.874777202433599</v>
       </c>
       <c r="D4">
-        <v>5.946596979797158</v>
+        <v>2.310780077892701</v>
       </c>
       <c r="E4">
-        <v>8.284308747228062</v>
+        <v>5.233833098442537</v>
       </c>
       <c r="F4">
-        <v>21.38425187339053</v>
+        <v>34.07635680317621</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>4.594769227016179</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>5.083007631576089</v>
       </c>
       <c r="J4">
-        <v>5.737334445634764</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>23.76625610421682</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.305020615206511</v>
       </c>
       <c r="M4">
-        <v>13.76308171582182</v>
+        <v>12.61109814494585</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.664688060341989</v>
       </c>
       <c r="O4">
-        <v>15.37569613785294</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>16.2668927782461</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.34541608796003</v>
+        <v>14.47019306424441</v>
       </c>
       <c r="C5">
-        <v>12.82728594808103</v>
+        <v>6.756440968924108</v>
       </c>
       <c r="D5">
-        <v>5.898922071371288</v>
+        <v>2.297681928482409</v>
       </c>
       <c r="E5">
-        <v>8.264542925287643</v>
+        <v>5.188103849558134</v>
       </c>
       <c r="F5">
-        <v>21.32833134265999</v>
+        <v>33.86246838380968</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>4.664339078947765</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>5.141911482309561</v>
       </c>
       <c r="J5">
-        <v>5.752917478866179</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>23.67237603928905</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.283576543058109</v>
       </c>
       <c r="M5">
-        <v>13.54050856298827</v>
+        <v>12.42477694356986</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.610598307878826</v>
       </c>
       <c r="O5">
-        <v>15.38075907498769</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>16.28310065558326</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.2810485732049</v>
+        <v>14.42059542345598</v>
       </c>
       <c r="C6">
-        <v>12.78696302997571</v>
+        <v>6.743360412054622</v>
       </c>
       <c r="D6">
-        <v>5.890997917148863</v>
+        <v>2.297604713514236</v>
       </c>
       <c r="E6">
-        <v>8.261329088503262</v>
+        <v>5.180035154172531</v>
       </c>
       <c r="F6">
-        <v>21.31942747235976</v>
+        <v>33.81033762623495</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>4.676598542892645</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>5.15476892027016</v>
       </c>
       <c r="J6">
-        <v>5.755543127907684</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>23.64457642794365</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.279188852584628</v>
       </c>
       <c r="M6">
-        <v>13.50324494296841</v>
+        <v>12.39072298328729</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.602852900015918</v>
       </c>
       <c r="O6">
-        <v>15.38189732089262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>16.28193855531295</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.72332081563958</v>
+        <v>14.69637154540707</v>
       </c>
       <c r="C7">
-        <v>13.06426378834531</v>
+        <v>6.890998931779321</v>
       </c>
       <c r="D7">
-        <v>5.945954581306539</v>
+        <v>2.316314828135188</v>
       </c>
       <c r="E7">
-        <v>8.284037595127925</v>
+        <v>5.232072804257974</v>
       </c>
       <c r="F7">
-        <v>21.38347200423875</v>
+        <v>34.02859465475981</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>4.597372399587709</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>5.091755149113966</v>
       </c>
       <c r="J7">
-        <v>5.73754204090909</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>23.73184782990027</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.302567884421181</v>
       </c>
       <c r="M7">
-        <v>13.76010063721562</v>
+        <v>12.6008441242199</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.667398257951137</v>
       </c>
       <c r="O7">
-        <v>15.37574431105829</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>16.25662452008408</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.56387471760562</v>
+        <v>15.87407541944441</v>
       </c>
       <c r="C8">
-        <v>14.22362609886114</v>
+        <v>7.570459581863124</v>
       </c>
       <c r="D8">
-        <v>6.186904387686995</v>
+        <v>2.393392892216151</v>
       </c>
       <c r="E8">
-        <v>8.394236975477416</v>
+        <v>5.455486195618511</v>
       </c>
       <c r="F8">
-        <v>21.72276424115714</v>
+        <v>35.02704691347369</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>4.258724684697595</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>4.817257062914528</v>
       </c>
       <c r="J8">
-        <v>5.663744949934662</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>24.14708182008056</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.404008798435593</v>
       </c>
       <c r="M8">
-        <v>14.84776345587883</v>
+        <v>13.50095220405347</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.943550090275796</v>
       </c>
       <c r="O8">
-        <v>15.39356249562664</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>16.15586634299736</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.77885875541013</v>
+        <v>17.99383508791996</v>
       </c>
       <c r="C9">
-        <v>16.26422171550082</v>
+        <v>8.83680113581876</v>
       </c>
       <c r="D9">
-        <v>6.650049602514531</v>
+        <v>2.544265887910997</v>
       </c>
       <c r="E9">
-        <v>8.646758695525673</v>
+        <v>5.868580574904094</v>
       </c>
       <c r="F9">
-        <v>22.60135064354228</v>
+        <v>37.02071076020282</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>3.635299870632167</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>4.30523280475448</v>
       </c>
       <c r="J9">
-        <v>5.540354153352969</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>25.00930115756691</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.593147355205454</v>
       </c>
       <c r="M9">
-        <v>16.93344395602341</v>
+        <v>15.14293164356713</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.456818258566847</v>
       </c>
       <c r="O9">
-        <v>15.60602602492477</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>15.97970300828475</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.90561027577197</v>
+        <v>19.33954341912001</v>
       </c>
       <c r="C10">
-        <v>17.62141603237988</v>
+        <v>9.696503197399853</v>
       </c>
       <c r="D10">
-        <v>6.981749502166955</v>
+        <v>2.70431595085562</v>
       </c>
       <c r="E10">
-        <v>8.854826427817434</v>
+        <v>6.087384439353556</v>
       </c>
       <c r="F10">
-        <v>23.38341212657446</v>
+        <v>38.20928804012217</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>3.230594726182845</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.964898551813311</v>
       </c>
       <c r="J10">
-        <v>5.463818582986417</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>25.48581382147115</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.695625078742065</v>
       </c>
       <c r="M10">
-        <v>18.42457833744147</v>
+        <v>16.21397099855997</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.740608804923363</v>
       </c>
       <c r="O10">
-        <v>15.88389116880129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>15.80282681151405</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.82322667979848</v>
+        <v>19.36726558454734</v>
       </c>
       <c r="C11">
-        <v>18.20824678565809</v>
+        <v>10.0331831031925</v>
       </c>
       <c r="D11">
-        <v>7.13029049234071</v>
+        <v>2.666226573738491</v>
       </c>
       <c r="E11">
-        <v>8.954427383761276</v>
+        <v>5.662624025614956</v>
       </c>
       <c r="F11">
-        <v>23.76984378849238</v>
+        <v>36.77305403742055</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>3.85011922835285</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.898940457495265</v>
       </c>
       <c r="J11">
-        <v>5.432345722760228</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>24.50865033222856</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5.541800525937274</v>
       </c>
       <c r="M11">
-        <v>19.06884994534014</v>
+        <v>16.3094330839732</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.202707895360405</v>
       </c>
       <c r="O11">
-        <v>16.03936174491732</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>15.34164173921411</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.16363803642957</v>
+        <v>19.13364345704281</v>
       </c>
       <c r="C12">
-        <v>18.42610142782058</v>
+        <v>10.12062273292457</v>
       </c>
       <c r="D12">
-        <v>7.186167047266151</v>
+        <v>2.589662228353384</v>
       </c>
       <c r="E12">
-        <v>8.992858551792358</v>
+        <v>5.354281359016859</v>
       </c>
       <c r="F12">
-        <v>23.92064528108091</v>
+        <v>35.35681071321508</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>4.950328865428545</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.895556459778592</v>
       </c>
       <c r="J12">
-        <v>5.420934719543234</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>23.62999581630563</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5.451706971958723</v>
       </c>
       <c r="M12">
-        <v>19.30798969133156</v>
+        <v>16.17385746163394</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.696923753247557</v>
       </c>
       <c r="O12">
-        <v>16.10260861524691</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>15.02790009303071</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.09063717150249</v>
+        <v>18.65265441212235</v>
       </c>
       <c r="C13">
-        <v>18.37937612273363</v>
+        <v>10.04314230701537</v>
       </c>
       <c r="D13">
-        <v>7.174150098282049</v>
+        <v>2.486600546805792</v>
       </c>
       <c r="E13">
-        <v>8.984549890837307</v>
+        <v>5.125790374504184</v>
       </c>
       <c r="F13">
-        <v>23.88796792402438</v>
+        <v>33.78905605021038</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>6.221988229079739</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.953127984561413</v>
       </c>
       <c r="J13">
-        <v>5.423369284924981</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>22.72124108888315</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.402739541190982</v>
       </c>
       <c r="M13">
-        <v>19.2567004786806</v>
+        <v>15.83815617344468</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.188141256491924</v>
       </c>
       <c r="O13">
-        <v>16.08878983582748</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>14.79477066750002</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.85137363632806</v>
+        <v>18.19260191372669</v>
       </c>
       <c r="C14">
-        <v>18.22625710745416</v>
+        <v>9.917192520668424</v>
       </c>
       <c r="D14">
-        <v>7.134895137734379</v>
+        <v>2.403160917472191</v>
       </c>
       <c r="E14">
-        <v>8.957574804109623</v>
+        <v>5.023441659742151</v>
       </c>
       <c r="F14">
-        <v>23.78216046729263</v>
+        <v>32.60791849385961</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.165264717039619</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4.023274583836388</v>
       </c>
       <c r="J14">
-        <v>5.431396610358787</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>22.06583522278282</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.395066279276675</v>
       </c>
       <c r="M14">
-        <v>19.08862056437149</v>
+        <v>15.50641167523315</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.836713930084525</v>
       </c>
       <c r="O14">
-        <v>16.04447639631621</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>14.67075930888935</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.70390010624022</v>
+        <v>18.02013391550896</v>
       </c>
       <c r="C15">
-        <v>18.13189980882645</v>
+        <v>9.855990032360621</v>
       </c>
       <c r="D15">
-        <v>7.110800873900638</v>
+        <v>2.379404351079792</v>
       </c>
       <c r="E15">
-        <v>8.941144910732039</v>
+        <v>5.001821613984522</v>
       </c>
       <c r="F15">
-        <v>23.71793380673049</v>
+        <v>32.27506479705454</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.392352163717733</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4.057642730807615</v>
       </c>
       <c r="J15">
-        <v>5.436380439584579</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>21.88997479832615</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.393813650936634</v>
       </c>
       <c r="M15">
-        <v>18.98503952138516</v>
+        <v>15.37982210118011</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.749985976350287</v>
       </c>
       <c r="O15">
-        <v>16.0179081828174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>14.65253440350825</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.84464703075538</v>
+        <v>17.5174993098854</v>
       </c>
       <c r="C16">
-        <v>17.58245257105569</v>
+        <v>9.521297413246606</v>
       </c>
       <c r="D16">
-        <v>6.971991602508447</v>
+        <v>2.331517704201482</v>
       </c>
       <c r="E16">
-        <v>8.848417098036522</v>
+        <v>4.94212474086946</v>
       </c>
       <c r="F16">
-        <v>23.35878022785241</v>
+        <v>32.01718876638915</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.257389806850542</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>4.195842196023759</v>
       </c>
       <c r="J16">
-        <v>5.465944879881406</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>21.84042148268477</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.355453332281187</v>
       </c>
       <c r="M16">
-        <v>18.38179385882767</v>
+        <v>14.97752006023994</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.720940633103827</v>
       </c>
       <c r="O16">
-        <v>15.87433262411153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>14.77068929497234</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.30482305045224</v>
+        <v>17.38107937122572</v>
       </c>
       <c r="C17">
-        <v>17.23757461571284</v>
+        <v>9.330519306138601</v>
       </c>
       <c r="D17">
-        <v>6.886208040674662</v>
+        <v>2.340815184762267</v>
       </c>
       <c r="E17">
-        <v>8.792801221128325</v>
+        <v>4.938945593830835</v>
       </c>
       <c r="F17">
-        <v>23.14635067924311</v>
+        <v>32.45645429907621</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>6.634339262835143</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>4.265444597693953</v>
       </c>
       <c r="J17">
-        <v>5.484955999350928</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>22.15084064754515</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.324680349079773</v>
       </c>
       <c r="M17">
-        <v>18.00304481912479</v>
+        <v>14.84846268277587</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.884488072167277</v>
       </c>
       <c r="O17">
-        <v>15.79384133322322</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>14.9243040071506</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.98963189311313</v>
+        <v>17.56377973940821</v>
       </c>
       <c r="C18">
-        <v>17.03633076986123</v>
+        <v>9.233878421919819</v>
       </c>
       <c r="D18">
-        <v>6.836648033643078</v>
+        <v>2.395267812638899</v>
       </c>
       <c r="E18">
-        <v>8.761278198921058</v>
+        <v>5.050898052950403</v>
       </c>
       <c r="F18">
-        <v>23.02705078129856</v>
+        <v>33.57958249924329</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>5.57970539311362</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>4.272809863401198</v>
       </c>
       <c r="J18">
-        <v>5.496203685746311</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>22.83649107653157</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.32863899587749</v>
       </c>
       <c r="M18">
-        <v>17.78198894604445</v>
+        <v>14.94813059492107</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.247314248625748</v>
       </c>
       <c r="O18">
-        <v>15.75027032147957</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>15.1460962256708</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.88210365581881</v>
+        <v>17.95279982269557</v>
       </c>
       <c r="C19">
-        <v>16.96769780465809</v>
+        <v>9.245928537823167</v>
       </c>
       <c r="D19">
-        <v>6.819831303016237</v>
+        <v>2.492696420902307</v>
       </c>
       <c r="E19">
-        <v>8.750684961695374</v>
+        <v>5.334715824959281</v>
       </c>
       <c r="F19">
-        <v>22.98715126709731</v>
+        <v>35.09847091909585</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>4.420501725312391</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>4.242462773578096</v>
       </c>
       <c r="J19">
-        <v>5.500064955219647</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>23.73146900664674</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.40421903252545</v>
       </c>
       <c r="M19">
-        <v>17.70659011464133</v>
+        <v>15.20815850898071</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.767931058635432</v>
       </c>
       <c r="O19">
-        <v>15.73597987557542</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>15.41381812308517</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.36277383143725</v>
+        <v>18.9412420677189</v>
       </c>
       <c r="C20">
-        <v>17.27458525902302</v>
+        <v>9.515407001917932</v>
       </c>
       <c r="D20">
-        <v>6.895362840866562</v>
+        <v>2.682200446447469</v>
       </c>
       <c r="E20">
-        <v>8.798673403379293</v>
+        <v>6.024550857255423</v>
       </c>
       <c r="F20">
-        <v>23.1686652360077</v>
+        <v>37.76438972958639</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>3.339999786968902</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>4.079293398624845</v>
       </c>
       <c r="J20">
-        <v>5.482899657097012</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>25.25976854768226</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5.661954941664515</v>
       </c>
       <c r="M20">
-        <v>18.04369501372749</v>
+        <v>15.9169446256708</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.672869253782879</v>
       </c>
       <c r="O20">
-        <v>15.80212624417727</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>15.81647861990809</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.9218422015106</v>
+        <v>20.03731319634688</v>
       </c>
       <c r="C21">
-        <v>18.27135007138699</v>
+        <v>10.15268897063273</v>
       </c>
       <c r="D21">
-        <v>7.146435633947551</v>
+        <v>2.818776712450692</v>
       </c>
       <c r="E21">
-        <v>8.965478628274431</v>
+        <v>6.292914078374542</v>
       </c>
       <c r="F21">
-        <v>23.81311699731022</v>
+        <v>39.03645640060139</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>2.993641444388209</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.807098143355537</v>
       </c>
       <c r="J21">
-        <v>5.429024806122169</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>25.85075297098852</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>5.78230990729925</v>
       </c>
       <c r="M21">
-        <v>19.13812030276929</v>
+        <v>16.77927242143938</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.005050963652396</v>
       </c>
       <c r="O21">
-        <v>16.05737216416994</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>15.75684495351849</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.89962356042388</v>
+        <v>20.71479993555938</v>
       </c>
       <c r="C22">
-        <v>18.89736816742889</v>
+        <v>10.53856225413904</v>
       </c>
       <c r="D22">
-        <v>7.308341801209838</v>
+        <v>2.891695455042715</v>
       </c>
       <c r="E22">
-        <v>9.078661431864067</v>
+        <v>6.431738860464343</v>
       </c>
       <c r="F22">
-        <v>24.26036936268209</v>
+        <v>39.79495494962006</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>2.782941269081806</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.626360048513491</v>
       </c>
       <c r="J22">
-        <v>5.396784204678936</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>26.20498637366587</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>5.847947213560978</v>
       </c>
       <c r="M22">
-        <v>19.82526030328495</v>
+        <v>17.3112203575282</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.174439703154567</v>
       </c>
       <c r="O22">
-        <v>16.24976161065992</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>15.70838245243624</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.38149531553654</v>
+        <v>20.37403799782474</v>
       </c>
       <c r="C23">
-        <v>18.56556495168327</v>
+        <v>10.31955768485275</v>
       </c>
       <c r="D23">
-        <v>7.222139285273254</v>
+        <v>2.845693054503991</v>
       </c>
       <c r="E23">
-        <v>9.017871462686927</v>
+        <v>6.359050098252736</v>
       </c>
       <c r="F23">
-        <v>24.01926018676532</v>
+        <v>39.43669404242362</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>2.893372679743619</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.71213276295477</v>
       </c>
       <c r="J23">
-        <v>5.413710538432314</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>26.05146147862963</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>5.81526694412497</v>
       </c>
       <c r="M23">
-        <v>19.46107182037334</v>
+        <v>17.03610902574422</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.080888733432436</v>
       </c>
       <c r="O23">
-        <v>16.14467990984538</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>15.7458148037395</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.33658936366997</v>
+        <v>19.00214822900197</v>
       </c>
       <c r="C24">
-        <v>17.25786199683208</v>
+        <v>9.486883440722767</v>
       </c>
       <c r="D24">
-        <v>6.891224706453898</v>
+        <v>2.67938582289862</v>
       </c>
       <c r="E24">
-        <v>8.79601718431848</v>
+        <v>6.075984154859166</v>
       </c>
       <c r="F24">
-        <v>23.15856801866137</v>
+        <v>37.9925028877206</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>3.322063945860383</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>4.061166572832589</v>
       </c>
       <c r="J24">
-        <v>5.483828341073668</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>25.41145439461943</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>5.6853850298024</v>
       </c>
       <c r="M24">
-        <v>18.02532736928582</v>
+        <v>15.94782415211069</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.724892011157625</v>
       </c>
       <c r="O24">
-        <v>15.79837222685535</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>15.87043038912621</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.95082811392162</v>
+        <v>17.41309560998711</v>
       </c>
       <c r="C25">
-        <v>15.73717623444949</v>
+        <v>8.532249104386064</v>
       </c>
       <c r="D25">
-        <v>6.526074860846067</v>
+        <v>2.506148380538497</v>
       </c>
       <c r="E25">
-        <v>8.574505611812071</v>
+        <v>5.757877596803618</v>
       </c>
       <c r="F25">
-        <v>22.34007971334306</v>
+        <v>36.41151527189193</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>3.802211329233857</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>4.453932385135184</v>
       </c>
       <c r="J25">
-        <v>5.571342642262795</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>24.72041659036032</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.539770172090401</v>
       </c>
       <c r="M25">
-        <v>16.35372395208596</v>
+        <v>14.70185744012618</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.32637158734075</v>
       </c>
       <c r="O25">
-        <v>15.52809832543402</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>16.00881377348302</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_40/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.20512397587122</v>
+        <v>15.21162407529725</v>
       </c>
       <c r="C2">
-        <v>7.735462946102698</v>
+        <v>8.409521716046095</v>
       </c>
       <c r="D2">
-        <v>2.406314053448146</v>
+        <v>2.76550222387018</v>
       </c>
       <c r="E2">
-        <v>5.515744804384036</v>
+        <v>5.571337662049354</v>
       </c>
       <c r="F2">
-        <v>35.3562052616774</v>
+        <v>32.94064804755521</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.167735287343266</v>
+        <v>3.900795472545075</v>
       </c>
       <c r="I2">
-        <v>4.734914617773183</v>
+        <v>4.412522800800649</v>
       </c>
       <c r="J2">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K2">
-        <v>24.30463346565154</v>
+        <v>22.26457020454024</v>
       </c>
       <c r="L2">
-        <v>5.43350707522454</v>
+        <v>17.04409829236812</v>
       </c>
       <c r="M2">
-        <v>13.74618874947054</v>
+        <v>15.99129985469279</v>
       </c>
       <c r="N2">
-        <v>7.012298552482727</v>
+        <v>5.335717867203846</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>13.35225467621647</v>
       </c>
       <c r="P2">
-        <v>16.14325062459934</v>
+        <v>7.349984659166377</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>15.3991852030493</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.3021036120538</v>
+        <v>14.36605886727713</v>
       </c>
       <c r="C3">
-        <v>7.186954121657978</v>
+        <v>7.887557218917762</v>
       </c>
       <c r="D3">
-        <v>2.347129424881282</v>
+        <v>2.633535893846198</v>
       </c>
       <c r="E3">
-        <v>5.343155190657128</v>
+        <v>5.40871007586004</v>
       </c>
       <c r="F3">
-        <v>34.56585425155725</v>
+        <v>32.3396765684029</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.428828936593706</v>
+        <v>4.141138115901564</v>
       </c>
       <c r="I3">
-        <v>4.947441436220109</v>
+        <v>4.600227115428902</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>23.9716685540845</v>
+        <v>22.07168841447364</v>
       </c>
       <c r="L3">
-        <v>5.354965990069406</v>
+        <v>16.99090344636318</v>
       </c>
       <c r="M3">
-        <v>13.05298305968479</v>
+        <v>15.78443278526278</v>
       </c>
       <c r="N3">
-        <v>6.798513965534414</v>
+        <v>5.267378584011724</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>12.67730079870181</v>
       </c>
       <c r="P3">
-        <v>16.21961067287087</v>
+        <v>7.131009507078229</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>15.51756389007665</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.72027181991058</v>
+        <v>13.8193818536311</v>
       </c>
       <c r="C4">
-        <v>6.874777202433599</v>
+        <v>7.55897425771183</v>
       </c>
       <c r="D4">
-        <v>2.310780077892701</v>
+        <v>2.550714602383432</v>
       </c>
       <c r="E4">
-        <v>5.233833098442537</v>
+        <v>5.305736643084572</v>
       </c>
       <c r="F4">
-        <v>34.07635680317621</v>
+        <v>31.96827341800806</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.594769227016179</v>
+        <v>4.294021952433121</v>
       </c>
       <c r="I4">
-        <v>5.083007631576089</v>
+        <v>4.720292085072213</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>23.76625610421682</v>
+        <v>21.95263586353014</v>
       </c>
       <c r="L4">
-        <v>5.305020615206511</v>
+        <v>16.95240949749089</v>
       </c>
       <c r="M4">
-        <v>12.61109814494585</v>
+        <v>15.67228023070155</v>
       </c>
       <c r="N4">
-        <v>6.664688060341989</v>
+        <v>5.223824705770966</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>12.2461083853529</v>
       </c>
       <c r="P4">
-        <v>16.2668927782461</v>
+        <v>6.994291717675746</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>15.59069978505759</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.47019306424441</v>
+        <v>13.58381545400828</v>
       </c>
       <c r="C5">
-        <v>6.756440968924108</v>
+        <v>7.428314622131431</v>
       </c>
       <c r="D5">
-        <v>2.297681928482409</v>
+        <v>2.518814035195503</v>
       </c>
       <c r="E5">
-        <v>5.188103849558134</v>
+        <v>5.262676694511923</v>
       </c>
       <c r="F5">
-        <v>33.86246838380968</v>
+        <v>31.80389500095307</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.664339078947765</v>
+        <v>4.358154455919546</v>
       </c>
       <c r="I5">
-        <v>5.141911482309561</v>
+        <v>4.773151982629077</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>23.67237603928905</v>
+        <v>21.89496569379922</v>
       </c>
       <c r="L5">
-        <v>5.283576543058109</v>
+        <v>16.92722226106174</v>
       </c>
       <c r="M5">
-        <v>12.42477694356986</v>
+        <v>15.62477690658193</v>
       </c>
       <c r="N5">
-        <v>6.610598307878826</v>
+        <v>5.205099650114197</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>12.0641092371542</v>
       </c>
       <c r="P5">
-        <v>16.28310065558326</v>
+        <v>6.939036521394619</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>15.61806610712239</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.42059542345598</v>
+        <v>13.53694645763878</v>
       </c>
       <c r="C6">
-        <v>6.743360412054622</v>
+        <v>7.412760469081077</v>
       </c>
       <c r="D6">
-        <v>2.297604713514236</v>
+        <v>2.516259946114176</v>
       </c>
       <c r="E6">
-        <v>5.180035154172531</v>
+        <v>5.255083540635207</v>
       </c>
       <c r="F6">
-        <v>33.81033762623495</v>
+        <v>31.76124763983705</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.676598542892645</v>
+        <v>4.369464523730888</v>
       </c>
       <c r="I6">
-        <v>5.15476892027016</v>
+        <v>4.785453359060885</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>23.64457642794365</v>
+        <v>21.87437139281095</v>
       </c>
       <c r="L6">
-        <v>5.279188852584628</v>
+        <v>16.91315481924504</v>
       </c>
       <c r="M6">
-        <v>12.39072298328729</v>
+        <v>15.61023320547954</v>
       </c>
       <c r="N6">
-        <v>6.602852900015918</v>
+        <v>5.201267276071919</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>12.03089986324622</v>
       </c>
       <c r="P6">
-        <v>16.28193855531295</v>
+        <v>6.931019258832043</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>15.61949646410767</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.69637154540707</v>
+        <v>13.79657195897274</v>
       </c>
       <c r="C7">
-        <v>6.890998931779321</v>
+        <v>7.573914882774849</v>
       </c>
       <c r="D7">
-        <v>2.316314828135188</v>
+        <v>2.557724807339717</v>
       </c>
       <c r="E7">
-        <v>5.232072804257974</v>
+        <v>5.304090351648163</v>
       </c>
       <c r="F7">
-        <v>34.02859465475981</v>
+        <v>31.92455916578087</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.597372399587709</v>
+        <v>4.296438061151845</v>
       </c>
       <c r="I7">
-        <v>5.091755149113966</v>
+        <v>4.730140818737004</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>23.73184782990027</v>
+        <v>21.92198203840805</v>
       </c>
       <c r="L7">
-        <v>5.302567884421181</v>
+        <v>16.92584778928629</v>
       </c>
       <c r="M7">
-        <v>12.6008441242199</v>
+        <v>15.65254346028669</v>
       </c>
       <c r="N7">
-        <v>6.667398257951137</v>
+        <v>5.221688875802197</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>12.23628496183721</v>
       </c>
       <c r="P7">
-        <v>16.25662452008408</v>
+        <v>6.996763776146397</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>15.58263005773749</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.87407541944441</v>
+        <v>14.90157790997383</v>
       </c>
       <c r="C8">
-        <v>7.570459581863124</v>
+        <v>8.251797820746729</v>
       </c>
       <c r="D8">
-        <v>2.393392892216151</v>
+        <v>2.729726084194581</v>
       </c>
       <c r="E8">
-        <v>5.455486195618511</v>
+        <v>5.51456852135413</v>
       </c>
       <c r="F8">
-        <v>35.02704691347369</v>
+        <v>32.68074064103581</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.258724684697595</v>
+        <v>3.984537411258707</v>
       </c>
       <c r="I8">
-        <v>4.817257062914528</v>
+        <v>4.487865004878509</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>24.14708182008056</v>
+        <v>22.15955409224759</v>
       </c>
       <c r="L8">
-        <v>5.404008798435593</v>
+        <v>16.99443890710888</v>
       </c>
       <c r="M8">
-        <v>13.50095220405347</v>
+        <v>15.89075937463245</v>
       </c>
       <c r="N8">
-        <v>6.943550090275796</v>
+        <v>5.31008755401458</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>13.11389429855694</v>
       </c>
       <c r="P8">
-        <v>16.15586634299736</v>
+        <v>7.279119804581931</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>15.42912233368164</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.99383508791996</v>
+        <v>16.87785990263798</v>
       </c>
       <c r="C9">
-        <v>8.83680113581876</v>
+        <v>9.553888722500909</v>
       </c>
       <c r="D9">
-        <v>2.544265887910997</v>
+        <v>3.038942035865269</v>
       </c>
       <c r="E9">
-        <v>5.868580574904094</v>
+        <v>5.903963417938287</v>
       </c>
       <c r="F9">
-        <v>37.02071076020282</v>
+        <v>34.21128340685197</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3.635299870632167</v>
+        <v>3.41145215730292</v>
       </c>
       <c r="I9">
-        <v>4.30523280475448</v>
+        <v>4.035253721555202</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>25.00930115756691</v>
+        <v>22.67207633750408</v>
       </c>
       <c r="L9">
-        <v>5.593147355205454</v>
+        <v>17.12615175598854</v>
       </c>
       <c r="M9">
-        <v>15.14293164356713</v>
+        <v>16.50718984691969</v>
       </c>
       <c r="N9">
-        <v>7.456818258566847</v>
+        <v>5.474183997571068</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>14.70764802476142</v>
       </c>
       <c r="P9">
-        <v>15.97970300828475</v>
+        <v>7.806940742547697</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>15.14571805634305</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.33954341912001</v>
+        <v>18.13082002938473</v>
       </c>
       <c r="C10">
-        <v>9.696503197399853</v>
+        <v>10.49495558684127</v>
       </c>
       <c r="D10">
-        <v>2.70431595085562</v>
+        <v>3.239492008217769</v>
       </c>
       <c r="E10">
-        <v>6.087384439353556</v>
+        <v>6.108007904177615</v>
       </c>
       <c r="F10">
-        <v>38.20928804012217</v>
+        <v>35.10508435257126</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3.230594726182845</v>
+        <v>3.041806944282519</v>
       </c>
       <c r="I10">
-        <v>3.964898551813311</v>
+        <v>3.737278733157027</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>25.48581382147115</v>
+        <v>22.92322759180956</v>
       </c>
       <c r="L10">
-        <v>5.695625078742065</v>
+        <v>17.10167841027216</v>
       </c>
       <c r="M10">
-        <v>16.21397099855997</v>
+        <v>16.93107279994288</v>
       </c>
       <c r="N10">
-        <v>7.740608804923363</v>
+        <v>5.563689299871013</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>15.74584964496009</v>
       </c>
       <c r="P10">
-        <v>15.80282681151405</v>
+        <v>8.099948308674044</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>14.9046616283035</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.36726558454734</v>
+        <v>18.20506432954355</v>
       </c>
       <c r="C11">
-        <v>10.0331831031925</v>
+        <v>10.79725586977305</v>
       </c>
       <c r="D11">
-        <v>2.666226573738491</v>
+        <v>3.177851143114189</v>
       </c>
       <c r="E11">
-        <v>5.662624025614956</v>
+        <v>5.690750488787404</v>
       </c>
       <c r="F11">
-        <v>36.77305403742055</v>
+        <v>33.79173665264697</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3.85011922835285</v>
+        <v>3.699127917755869</v>
       </c>
       <c r="I11">
-        <v>3.898940457495265</v>
+        <v>3.682324360035037</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806006</v>
       </c>
       <c r="K11">
-        <v>24.50865033222856</v>
+        <v>22.06449948891369</v>
       </c>
       <c r="L11">
-        <v>5.541800525937274</v>
+        <v>16.34690959307732</v>
       </c>
       <c r="M11">
-        <v>16.3094330839732</v>
+        <v>16.39868768759622</v>
       </c>
       <c r="N11">
-        <v>7.202707895360405</v>
+        <v>5.44483139068354</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>15.86006709739017</v>
       </c>
       <c r="P11">
-        <v>15.34164173921411</v>
+        <v>7.546142049985477</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>14.5377700270309</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.13364345704281</v>
+        <v>18.03007392185915</v>
       </c>
       <c r="C12">
-        <v>10.12062273292457</v>
+        <v>10.83902994995787</v>
       </c>
       <c r="D12">
-        <v>2.589662228353384</v>
+        <v>3.073067038202384</v>
       </c>
       <c r="E12">
-        <v>5.354281359016859</v>
+        <v>5.391948524592001</v>
       </c>
       <c r="F12">
-        <v>35.35681071321508</v>
+        <v>32.53811094845042</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.950328865428545</v>
+        <v>4.831573179470364</v>
       </c>
       <c r="I12">
-        <v>3.895556459778592</v>
+        <v>3.67747714529802</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>23.62999581630563</v>
+        <v>21.33029189934263</v>
       </c>
       <c r="L12">
-        <v>5.451706971958723</v>
+        <v>15.75924152837659</v>
       </c>
       <c r="M12">
-        <v>16.17385746163394</v>
+        <v>15.88069554038096</v>
       </c>
       <c r="N12">
-        <v>6.696923753247557</v>
+        <v>5.386198366214815</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.74733381523476</v>
       </c>
       <c r="P12">
-        <v>15.02790009303071</v>
+        <v>7.024163390503461</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>14.311948838265</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.65265441212235</v>
+        <v>17.62363144592893</v>
       </c>
       <c r="C13">
-        <v>10.04314230701537</v>
+        <v>10.70179532409124</v>
       </c>
       <c r="D13">
-        <v>2.486600546805792</v>
+        <v>2.935729346715024</v>
       </c>
       <c r="E13">
-        <v>5.125790374504184</v>
+        <v>5.174877660457996</v>
       </c>
       <c r="F13">
-        <v>33.78905605021038</v>
+        <v>31.18113590989227</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6.221988229079739</v>
+        <v>6.121503587174138</v>
       </c>
       <c r="I13">
-        <v>3.953127984561413</v>
+        <v>3.726047832030331</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>22.72124108888315</v>
+        <v>20.60098981024184</v>
       </c>
       <c r="L13">
-        <v>5.402739541190982</v>
+        <v>15.22011669008893</v>
       </c>
       <c r="M13">
-        <v>15.83815617344468</v>
+        <v>15.31217799138711</v>
       </c>
       <c r="N13">
-        <v>6.188141256491924</v>
+        <v>5.366800789952765</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.44016225009486</v>
       </c>
       <c r="P13">
-        <v>14.79477066750002</v>
+        <v>6.497728592773128</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>14.16838567969086</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.19260191372669</v>
+        <v>17.22403944462173</v>
       </c>
       <c r="C14">
-        <v>9.917192520668424</v>
+        <v>10.52640439570074</v>
       </c>
       <c r="D14">
-        <v>2.403160917472191</v>
+        <v>2.825334220420105</v>
       </c>
       <c r="E14">
-        <v>5.023441659742151</v>
+        <v>5.080844002196617</v>
       </c>
       <c r="F14">
-        <v>32.60791849385961</v>
+        <v>30.17133671815235</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.165264717039619</v>
+        <v>7.072386918230689</v>
       </c>
       <c r="I14">
-        <v>4.023274583836388</v>
+        <v>3.787021027550494</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>22.06583522278282</v>
+        <v>20.08787376710947</v>
       </c>
       <c r="L14">
-        <v>5.395066279276675</v>
+        <v>14.85673587586749</v>
       </c>
       <c r="M14">
-        <v>15.50641167523315</v>
+        <v>14.89112193427218</v>
       </c>
       <c r="N14">
-        <v>5.836713930084525</v>
+        <v>5.37797917687695</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.13130133539592</v>
       </c>
       <c r="P14">
-        <v>14.67075930888935</v>
+        <v>6.133221938919303</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>14.10647682556404</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.02013391550896</v>
+        <v>17.07004889277317</v>
       </c>
       <c r="C15">
-        <v>9.855990032360621</v>
+        <v>10.44972995681226</v>
       </c>
       <c r="D15">
-        <v>2.379404351079792</v>
+        <v>2.793669926734439</v>
       </c>
       <c r="E15">
-        <v>5.001821613984522</v>
+        <v>5.06160540987736</v>
       </c>
       <c r="F15">
-        <v>32.27506479705454</v>
+        <v>29.89155981204633</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.392352163717733</v>
+        <v>7.299910640020063</v>
       </c>
       <c r="I15">
-        <v>4.057642730807615</v>
+        <v>3.818130112705857</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702216713</v>
       </c>
       <c r="K15">
-        <v>21.88997479832615</v>
+        <v>19.95493901438306</v>
       </c>
       <c r="L15">
-        <v>5.393813650936634</v>
+        <v>14.7684978076709</v>
       </c>
       <c r="M15">
-        <v>15.37982210118011</v>
+        <v>14.77383407197886</v>
       </c>
       <c r="N15">
-        <v>5.749985976350287</v>
+        <v>5.380965062026863</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>15.01160435587546</v>
       </c>
       <c r="P15">
-        <v>14.65253440350825</v>
+        <v>6.043198334829955</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>14.10433654622335</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.5174993098854</v>
+        <v>16.59670181061388</v>
       </c>
       <c r="C16">
-        <v>9.521297413246606</v>
+        <v>10.08699380782694</v>
       </c>
       <c r="D16">
-        <v>2.331517704201482</v>
+        <v>2.734542521182738</v>
       </c>
       <c r="E16">
-        <v>4.94212474086946</v>
+        <v>5.006407861620602</v>
       </c>
       <c r="F16">
-        <v>32.01718876638915</v>
+        <v>29.72508580489838</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.257389806850542</v>
+        <v>7.152196688840765</v>
       </c>
       <c r="I16">
-        <v>4.195842196023759</v>
+        <v>3.940950686024818</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>21.84042148268477</v>
+        <v>19.96941383380788</v>
       </c>
       <c r="L16">
-        <v>5.355453332281187</v>
+        <v>14.83963583073428</v>
       </c>
       <c r="M16">
-        <v>14.97752006023994</v>
+        <v>14.70488906373545</v>
       </c>
       <c r="N16">
-        <v>5.720940633103827</v>
+        <v>5.340717571708837</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.61934545573353</v>
       </c>
       <c r="P16">
-        <v>14.77068929497234</v>
+        <v>6.014579326175405</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>14.22757202442008</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.38107937122572</v>
+        <v>16.44933587603838</v>
       </c>
       <c r="C17">
-        <v>9.330519306138601</v>
+        <v>9.902405196188099</v>
       </c>
       <c r="D17">
-        <v>2.340815184762267</v>
+        <v>2.749734847394695</v>
       </c>
       <c r="E17">
-        <v>4.938945593830835</v>
+        <v>5.002541840945021</v>
       </c>
       <c r="F17">
-        <v>32.45645429907621</v>
+        <v>30.14180912662857</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6.634339262835143</v>
+        <v>6.513061431019667</v>
       </c>
       <c r="I17">
-        <v>4.265444597693953</v>
+        <v>4.003662620101962</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326998</v>
       </c>
       <c r="K17">
-        <v>22.15084064754515</v>
+        <v>20.25305852926416</v>
       </c>
       <c r="L17">
-        <v>5.324680349079773</v>
+        <v>15.09385242162422</v>
       </c>
       <c r="M17">
-        <v>14.84846268277587</v>
+        <v>14.87227979546771</v>
       </c>
       <c r="N17">
-        <v>5.884488072167277</v>
+        <v>5.299150355242536</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.48535192072964</v>
       </c>
       <c r="P17">
-        <v>14.9243040071506</v>
+        <v>6.18524201024622</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>14.35400416086599</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.56377973940821</v>
+        <v>16.5848049124064</v>
       </c>
       <c r="C18">
-        <v>9.233878421919819</v>
+        <v>9.842899190586587</v>
       </c>
       <c r="D18">
-        <v>2.395267812638899</v>
+        <v>2.825884090393596</v>
       </c>
       <c r="E18">
-        <v>5.050898052950403</v>
+        <v>5.10822665504165</v>
       </c>
       <c r="F18">
-        <v>33.57958249924329</v>
+        <v>31.13879641371929</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>5.57970539311362</v>
+        <v>5.43456502858174</v>
       </c>
       <c r="I18">
-        <v>4.272809863401198</v>
+        <v>4.009503299850832</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>22.83649107653157</v>
+        <v>20.82792994651935</v>
       </c>
       <c r="L18">
-        <v>5.32863899587749</v>
+        <v>15.56261985000223</v>
       </c>
       <c r="M18">
-        <v>14.94813059492107</v>
+        <v>15.27336490441223</v>
       </c>
       <c r="N18">
-        <v>6.247314248625748</v>
+        <v>5.281809675766068</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.56660764313523</v>
       </c>
       <c r="P18">
-        <v>15.1460962256708</v>
+        <v>6.561141821789251</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>14.51398786001971</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.95279982269557</v>
+        <v>16.90360079107399</v>
       </c>
       <c r="C19">
-        <v>9.245928537823167</v>
+        <v>9.912360605666322</v>
       </c>
       <c r="D19">
-        <v>2.492696420902307</v>
+        <v>2.955683426034169</v>
       </c>
       <c r="E19">
-        <v>5.334715824959281</v>
+        <v>5.381012664803599</v>
       </c>
       <c r="F19">
-        <v>35.09847091909585</v>
+        <v>32.46342799722544</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.420501725312391</v>
+        <v>4.243621141921182</v>
       </c>
       <c r="I19">
-        <v>4.242462773578096</v>
+        <v>3.985505287490088</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033017</v>
       </c>
       <c r="K19">
-        <v>23.73146900664674</v>
+        <v>21.55777787078284</v>
       </c>
       <c r="L19">
-        <v>5.40421903252545</v>
+        <v>16.14148326877014</v>
       </c>
       <c r="M19">
-        <v>15.20815850898071</v>
+        <v>15.80324830671928</v>
       </c>
       <c r="N19">
-        <v>6.767931058635432</v>
+        <v>5.327787134475503</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>14.79981007179583</v>
       </c>
       <c r="P19">
-        <v>15.41381812308517</v>
+        <v>7.098008954989675</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>14.69654684887187</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.9412420677189</v>
+        <v>17.75988710092849</v>
       </c>
       <c r="C20">
-        <v>9.515407001917932</v>
+        <v>10.29124965059916</v>
       </c>
       <c r="D20">
-        <v>2.682200446447469</v>
+        <v>3.205921439400309</v>
       </c>
       <c r="E20">
-        <v>6.024550857255423</v>
+        <v>6.04931472594498</v>
       </c>
       <c r="F20">
-        <v>37.76438972958639</v>
+        <v>34.74721124050277</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>3.339999786968902</v>
+        <v>3.141576609077115</v>
       </c>
       <c r="I20">
-        <v>4.079293398624845</v>
+        <v>3.844973340612203</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>25.25976854768226</v>
+        <v>22.76679397606979</v>
       </c>
       <c r="L20">
-        <v>5.661954941664515</v>
+        <v>17.03918986868189</v>
       </c>
       <c r="M20">
-        <v>15.9169446256708</v>
+        <v>16.74888525697046</v>
       </c>
       <c r="N20">
-        <v>7.672869253782879</v>
+        <v>5.534464387875584</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>15.45879130677627</v>
       </c>
       <c r="P20">
-        <v>15.81647861990809</v>
+        <v>8.029142157038628</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>14.94301875261538</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.03731319634688</v>
+        <v>18.76956453924369</v>
       </c>
       <c r="C21">
-        <v>10.15268897063273</v>
+        <v>11.0010884546895</v>
       </c>
       <c r="D21">
-        <v>2.818776712450692</v>
+        <v>3.379793572782649</v>
       </c>
       <c r="E21">
-        <v>6.292914078374542</v>
+        <v>6.304105109548271</v>
       </c>
       <c r="F21">
-        <v>39.03645640060139</v>
+        <v>35.75166967884779</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.993641444388209</v>
+        <v>2.823080834418707</v>
       </c>
       <c r="I21">
-        <v>3.807098143355537</v>
+        <v>3.606405709915123</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015645</v>
       </c>
       <c r="K21">
-        <v>25.85075297098852</v>
+        <v>23.14629066124808</v>
       </c>
       <c r="L21">
-        <v>5.78230990729925</v>
+        <v>17.15962455288857</v>
       </c>
       <c r="M21">
-        <v>16.77927242143938</v>
+        <v>17.22963866331644</v>
       </c>
       <c r="N21">
-        <v>8.005050963652396</v>
+        <v>5.637786989830619</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>16.28936191007956</v>
       </c>
       <c r="P21">
-        <v>15.75684495351849</v>
+        <v>8.372135803270968</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>14.8110503990978</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.71479993555938</v>
+        <v>19.39536910129491</v>
       </c>
       <c r="C22">
-        <v>10.53856225413904</v>
+        <v>11.42895620737431</v>
       </c>
       <c r="D22">
-        <v>2.891695455042715</v>
+        <v>3.474154238460177</v>
       </c>
       <c r="E22">
-        <v>6.431738860464343</v>
+        <v>6.434938420378003</v>
       </c>
       <c r="F22">
-        <v>39.79495494962006</v>
+        <v>36.3501922407322</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.782941269081806</v>
+        <v>2.630237266032778</v>
       </c>
       <c r="I22">
-        <v>3.626360048513491</v>
+        <v>3.445056627449193</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130157</v>
       </c>
       <c r="K22">
-        <v>26.20498637366587</v>
+        <v>23.37277036651065</v>
       </c>
       <c r="L22">
-        <v>5.847947213560978</v>
+        <v>17.21619263209167</v>
       </c>
       <c r="M22">
-        <v>17.3112203575282</v>
+        <v>17.53835342511526</v>
       </c>
       <c r="N22">
-        <v>8.174439703154567</v>
+        <v>5.694382056962834</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>16.80195033310813</v>
       </c>
       <c r="P22">
-        <v>15.70838245243624</v>
+        <v>8.547702218075548</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>14.71895800647165</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.37403799782474</v>
+        <v>19.08112218632154</v>
       </c>
       <c r="C23">
-        <v>10.31955768485275</v>
+        <v>11.18818198896679</v>
       </c>
       <c r="D23">
-        <v>2.845693054503991</v>
+        <v>3.417093617797592</v>
       </c>
       <c r="E23">
-        <v>6.359050098252736</v>
+        <v>6.366412313255044</v>
       </c>
       <c r="F23">
-        <v>39.43669404242362</v>
+        <v>36.07356836900053</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.893372679743619</v>
+        <v>2.731301828410783</v>
       </c>
       <c r="I23">
-        <v>3.71213276295477</v>
+        <v>3.518680770931098</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839348</v>
       </c>
       <c r="K23">
-        <v>26.05146147862963</v>
+        <v>23.28371941428074</v>
       </c>
       <c r="L23">
-        <v>5.81526694412497</v>
+        <v>17.21036731908005</v>
       </c>
       <c r="M23">
-        <v>17.03610902574422</v>
+        <v>17.39698113633978</v>
       </c>
       <c r="N23">
-        <v>8.080888733432436</v>
+        <v>5.666172771354842</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>16.53678295758223</v>
       </c>
       <c r="P23">
-        <v>15.7458148037395</v>
+        <v>8.451037006364984</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>14.77688119051019</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.00214822900197</v>
+        <v>17.81258432056342</v>
       </c>
       <c r="C24">
-        <v>9.486883440722767</v>
+        <v>10.26884279698228</v>
       </c>
       <c r="D24">
-        <v>2.67938582289862</v>
+        <v>3.206762521420957</v>
       </c>
       <c r="E24">
-        <v>6.075984154859166</v>
+        <v>6.099548306818226</v>
       </c>
       <c r="F24">
-        <v>37.9925028877206</v>
+        <v>34.95120107776631</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>3.322063945860383</v>
+        <v>3.124044176764149</v>
       </c>
       <c r="I24">
-        <v>4.061166572832589</v>
+        <v>3.824540484037724</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>25.41145439461943</v>
+        <v>22.89650738845558</v>
       </c>
       <c r="L24">
-        <v>5.6853850298024</v>
+        <v>17.14273512697629</v>
       </c>
       <c r="M24">
-        <v>15.94782415211069</v>
+        <v>16.8421010627266</v>
       </c>
       <c r="N24">
-        <v>7.724892011157625</v>
+        <v>5.554014329105931</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>15.48647489378042</v>
       </c>
       <c r="P24">
-        <v>15.87043038912621</v>
+        <v>8.083052795906745</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>14.98298911028326</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.41309560998711</v>
+        <v>16.33726191458685</v>
       </c>
       <c r="C25">
-        <v>8.532249104386064</v>
+        <v>9.213743547732546</v>
       </c>
       <c r="D25">
-        <v>2.506148380538497</v>
+        <v>2.969008873698659</v>
       </c>
       <c r="E25">
-        <v>5.757877596803618</v>
+        <v>5.799623610048065</v>
       </c>
       <c r="F25">
-        <v>36.41151527189193</v>
+        <v>33.73071499674718</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>3.802211329233857</v>
+        <v>3.564745926569636</v>
       </c>
       <c r="I25">
-        <v>4.453932385135184</v>
+        <v>4.170339500330589</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>24.72041659036032</v>
+        <v>22.48286681674032</v>
       </c>
       <c r="L25">
-        <v>5.539770172090401</v>
+        <v>17.05436804516969</v>
       </c>
       <c r="M25">
-        <v>14.70185744012618</v>
+        <v>16.29220067942076</v>
       </c>
       <c r="N25">
-        <v>7.32637158734075</v>
+        <v>5.427987460341939</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>14.28055788344816</v>
       </c>
       <c r="P25">
-        <v>16.00881377348302</v>
+        <v>7.672051403667924</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>15.20796140729915</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
